--- a/code/ohmslaw-light.xlsx
+++ b/code/ohmslaw-light.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="90">
   <si>
     <t xml:space="preserve">V</t>
   </si>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Gamma</t>
   </si>
   <si>
-    <t xml:space="preserve">h – gvolts/mass</t>
+    <t xml:space="preserve">money</t>
   </si>
   <si>
     <t xml:space="preserve">Radio</t>
@@ -90,7 +90,10 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">F – force/intention</t>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
   </si>
   <si>
     <t xml:space="preserve">Red</t>
@@ -102,10 +105,10 @@
     <t xml:space="preserve">Pi</t>
   </si>
   <si>
-    <t xml:space="preserve">g – mass/consc</t>
+    <t xml:space="preserve">force</t>
   </si>
   <si>
-    <t xml:space="preserve">mass</t>
+    <t xml:space="preserve">gross income</t>
   </si>
   <si>
     <t xml:space="preserve">Blue</t>
@@ -120,7 +123,10 @@
     <t xml:space="preserve">wavelength</t>
   </si>
   <si>
-    <t xml:space="preserve">S – distance/dist</t>
+    <t xml:space="preserve">aCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRX</t>
   </si>
   <si>
     <t xml:space="preserve">High UV</t>
@@ -539,15 +545,15 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
-    <numFmt numFmtId="173" formatCode="General"/>
+    <numFmt numFmtId="171" formatCode="General"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0000000"/>
     <numFmt numFmtId="174" formatCode="[$-409]d\-mmm"/>
     <numFmt numFmtId="175" formatCode="[$-409]0"/>
     <numFmt numFmtId="176" formatCode="[$-409]0.00E+00"/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -607,12 +613,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -887,7 +887,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="439">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1096,7 +1096,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1132,7 +1132,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,6 +1152,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1160,15 +1164,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1200,6 +1200,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1268,7 +1272,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1288,7 +1292,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1320,7 +1324,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1364,7 +1368,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1424,7 +1428,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1500,7 +1504,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1568,7 +1572,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1632,7 +1636,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1692,7 +1696,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1752,7 +1756,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1820,7 +1824,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1884,7 +1888,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1952,7 +1956,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2004,7 +2008,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2020,7 +2024,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2096,7 +2100,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2108,7 +2112,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2136,7 +2140,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2148,11 +2152,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2172,7 +2176,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2188,11 +2192,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2200,7 +2204,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2236,7 +2240,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2264,7 +2268,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2272,7 +2276,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2296,11 +2300,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2332,7 +2336,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2356,7 +2360,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2380,7 +2384,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2408,7 +2412,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2432,7 +2436,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2460,11 +2464,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2492,7 +2496,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2524,7 +2528,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2604,7 +2608,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2723,9 +2727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>358920</xdr:colOff>
+      <xdr:colOff>358560</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2734,8 +2738,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32147280" y="13557600"/>
-          <a:ext cx="56160" cy="226440"/>
+          <a:off x="32145120" y="13557600"/>
+          <a:ext cx="55800" cy="226080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2768,9 +2772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>272160</xdr:colOff>
+      <xdr:colOff>271800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2779,8 +2783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20015280" y="13772880"/>
-          <a:ext cx="56160" cy="226440"/>
+          <a:off x="20013840" y="13772880"/>
+          <a:ext cx="55800" cy="226080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,9 +2817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
+      <xdr:colOff>271080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2824,8 +2828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7897320" y="12580920"/>
-          <a:ext cx="56160" cy="226440"/>
+          <a:off x="7896240" y="12580920"/>
+          <a:ext cx="55800" cy="226080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2854,11 +2858,11 @@
   </sheetPr>
   <dimension ref="A1:BE63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W15" activeCellId="0" sqref="W15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE11" activeCellId="0" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.52"/>
@@ -2926,7 +2930,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AE2" s="0" t="n">
         <f aca="false">+Z13/7.83</f>
-        <v>565712025.189362</v>
+        <v>0.383141762452107</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>2</v>
@@ -3329,7 +3333,7 @@
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
       <c r="Z13" s="52" t="n">
-        <v>4429525157.2327</v>
+        <v>3</v>
       </c>
       <c r="AA13" s="52"/>
       <c r="AB13" s="52"/>
@@ -3403,20 +3407,23 @@
       </c>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="28"/>
+      <c r="V14" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="W14" s="65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X14" s="65"/>
       <c r="Y14" s="65"/>
-      <c r="Z14" s="21" t="n">
-        <v>696.466219690677</v>
-      </c>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="Z14" s="66" t="n">
+        <f aca="false">+Z13/Z16</f>
+        <v>0.015</v>
+      </c>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
       <c r="AF14" s="21" t="n">
         <f aca="false">+Z15/(Z16^2)</f>
-        <v>696.466219690677</v>
+        <v>0.015</v>
       </c>
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
@@ -3430,7 +3437,7 @@
       <c r="AT14" s="22"/>
       <c r="AU14" s="22"/>
       <c r="AV14" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW14" s="56"/>
       <c r="AX14" s="57" t="n">
@@ -3440,7 +3447,7 @@
         <f aca="false">+300000000*AX14</f>
         <v>210</v>
       </c>
-      <c r="AZ14" s="66" t="n">
+      <c r="AZ14" s="67" t="n">
         <f aca="false">+BA14/AY14</f>
         <v>1.78571428571429</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>375</v>
       </c>
       <c r="BB14" s="59"/>
-      <c r="BC14" s="67" t="n">
+      <c r="BC14" s="68" t="n">
         <f aca="false">+300000000/AX13</f>
         <v>30000000000</v>
       </c>
@@ -3459,7 +3466,7 @@
       <c r="B15" s="43"/>
       <c r="C15" s="25"/>
       <c r="D15" s="44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
@@ -3471,7 +3478,7 @@
       <c r="J15" s="60"/>
       <c r="K15" s="61"/>
       <c r="L15" s="62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
@@ -3486,19 +3493,22 @@
       <c r="S15" s="62"/>
       <c r="T15" s="62"/>
       <c r="U15" s="62"/>
-      <c r="V15" s="28"/>
+      <c r="V15" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="W15" s="65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X15" s="65"/>
       <c r="Y15" s="65"/>
-      <c r="Z15" s="68" t="n">
-        <v>28171780000000000</v>
-      </c>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
+      <c r="Z15" s="66" t="n">
+        <f aca="false">+Z13*Z16</f>
+        <v>600</v>
+      </c>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
       <c r="AD15" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>4.186E+026</v>
@@ -3518,7 +3528,7 @@
       <c r="AT15" s="22"/>
       <c r="AU15" s="22"/>
       <c r="AV15" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW15" s="56"/>
       <c r="AX15" s="57" t="n">
@@ -3535,7 +3545,7 @@
         <v>375</v>
       </c>
       <c r="BB15" s="59"/>
-      <c r="BC15" s="67" t="n">
+      <c r="BC15" s="68" t="n">
         <f aca="false">+300000000/AX14</f>
         <v>428571428571429</v>
       </c>
@@ -3546,7 +3556,7 @@
       <c r="B16" s="43"/>
       <c r="C16" s="25"/>
       <c r="D16" s="44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
@@ -3558,7 +3568,7 @@
       <c r="J16" s="71"/>
       <c r="K16" s="72"/>
       <c r="L16" s="73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="73"/>
       <c r="N16" s="73"/>
@@ -3572,23 +3582,25 @@
       <c r="Q16" s="75"/>
       <c r="R16" s="72"/>
       <c r="S16" s="76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
-      <c r="V16" s="28"/>
+      <c r="V16" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="W16" s="77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X16" s="77"/>
       <c r="Y16" s="77"/>
-      <c r="Z16" s="31" t="n">
-        <v>6360000</v>
-      </c>
-      <c r="AA16" s="31" t="n">
+      <c r="Z16" s="78" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA16" s="78" t="n">
         <v>38314176.2452107</v>
       </c>
-      <c r="AB16" s="31" t="n">
+      <c r="AB16" s="78" t="n">
         <v>38314176.2452107</v>
       </c>
       <c r="AF16" s="31" t="n">
@@ -3609,25 +3621,25 @@
       <c r="AO16" s="53"/>
       <c r="AT16" s="22"/>
       <c r="AV16" s="55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AW16" s="56"/>
-      <c r="AX16" s="78" t="n">
+      <c r="AX16" s="79" t="n">
         <v>1E-008</v>
       </c>
-      <c r="AY16" s="79" t="n">
+      <c r="AY16" s="80" t="n">
         <f aca="false">+300000000*AX16</f>
         <v>3</v>
       </c>
-      <c r="AZ16" s="79" t="n">
+      <c r="AZ16" s="80" t="n">
         <f aca="false">+BA16/AY16</f>
         <v>125</v>
       </c>
       <c r="BA16" s="57" t="n">
         <v>375</v>
       </c>
-      <c r="BB16" s="80"/>
-      <c r="BC16" s="67" t="n">
+      <c r="BB16" s="81"/>
+      <c r="BC16" s="68" t="n">
         <f aca="false">+300000000/AX15</f>
         <v>937500000000000</v>
       </c>
@@ -3644,31 +3656,31 @@
       <c r="H17" s="45"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="44"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="82"/>
+      <c r="U17" s="83"/>
       <c r="V17" s="44"/>
-      <c r="W17" s="83"/>
+      <c r="W17" s="84"/>
       <c r="X17" s="44"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="85"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="45"/>
       <c r="AE17" s="45"/>
       <c r="AF17" s="25"/>
-      <c r="AG17" s="86"/>
+      <c r="AG17" s="87"/>
       <c r="AH17" s="26"/>
-      <c r="AI17" s="87" t="n">
+      <c r="AI17" s="88" t="n">
         <v>299792458</v>
       </c>
       <c r="AJ17" s="25"/>
@@ -3680,25 +3692,25 @@
       <c r="AT17" s="22"/>
       <c r="AU17" s="22"/>
       <c r="AV17" s="55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AW17" s="56"/>
-      <c r="AX17" s="78" t="n">
+      <c r="AX17" s="79" t="n">
         <v>1E-010</v>
       </c>
       <c r="AY17" s="57" t="n">
         <f aca="false">+300000000*AX17</f>
         <v>0.03</v>
       </c>
-      <c r="AZ17" s="79" t="n">
+      <c r="AZ17" s="80" t="n">
         <f aca="false">+BA17/AY17</f>
         <v>12500</v>
       </c>
       <c r="BA17" s="57" t="n">
         <v>375</v>
       </c>
-      <c r="BB17" s="88"/>
-      <c r="BC17" s="67" t="n">
+      <c r="BB17" s="89"/>
+      <c r="BC17" s="68" t="n">
         <f aca="false">+300000000/AX16</f>
         <v>30000000000000000</v>
       </c>
@@ -3708,103 +3720,103 @@
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94" t="n">
+      <c r="E18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95" t="n">
         <f aca="false">SQRT(L18*N18)</f>
         <v>6</v>
       </c>
-      <c r="J18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="96" t="n">
+      <c r="J18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="97" t="n">
         <f aca="false">+$I$15</f>
         <v>18</v>
       </c>
-      <c r="M18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="98" t="n">
+      <c r="M18" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="99" t="n">
         <f aca="false">+$I$14</f>
         <v>2</v>
       </c>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100" t="n">
+      <c r="O18" s="100"/>
+      <c r="P18" s="101" t="n">
         <f aca="false">SQRT(S18*U18)</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="Q18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="101" t="n">
+      <c r="Q18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="102" t="n">
         <f aca="false">+P15</f>
         <v>3.14159</v>
       </c>
-      <c r="T18" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="102" t="n">
+      <c r="T18" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="103" t="n">
         <f aca="false">+P14</f>
         <v>2</v>
       </c>
-      <c r="V18" s="103"/>
-      <c r="W18" s="104" t="n">
+      <c r="V18" s="104"/>
+      <c r="W18" s="105" t="n">
         <f aca="false">SQRT(Z18*AB18)</f>
-        <v>4429525157.2327</v>
-      </c>
-      <c r="X18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z18" s="105" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18" s="106" t="n">
         <f aca="false">+Z15</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="AA18" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB18" s="107" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA18" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" s="108" t="n">
         <f aca="false">+Z14</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="109" t="n">
         <f aca="false">+W18^2</f>
-        <v>1.96206931185574E+019</v>
-      </c>
-      <c r="AE18" s="108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE18" s="109" t="n">
         <f aca="false">+Z15^2</f>
-        <v>7.936491883684E+032</v>
-      </c>
-      <c r="AF18" s="108" t="n">
+        <v>360000</v>
+      </c>
+      <c r="AF18" s="109" t="n">
         <f aca="false">+AB18^2</f>
-        <v>485065.195170222</v>
+        <v>0.000225</v>
       </c>
       <c r="AG18" s="23"/>
       <c r="AH18" s="53"/>
       <c r="AI18" s="0" t="n">
         <f aca="false">SQRT(+$AI$17^1/AD18)^1/3.1415926</f>
-        <v>1.24423757798545E-006</v>
+        <v>1837.12721775362</v>
       </c>
       <c r="AJ18" s="53"/>
-      <c r="AK18" s="109"/>
+      <c r="AK18" s="110"/>
       <c r="AL18" s="53"/>
       <c r="AM18" s="53"/>
       <c r="AN18" s="23"/>
@@ -3812,17 +3824,17 @@
       <c r="AT18" s="22"/>
       <c r="AU18" s="22"/>
       <c r="AV18" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AW18" s="56"/>
-      <c r="AX18" s="78" t="n">
+      <c r="AX18" s="79" t="n">
         <v>2.5E-011</v>
       </c>
       <c r="AY18" s="57" t="n">
         <f aca="false">+300000000*AX18</f>
         <v>0.0075</v>
       </c>
-      <c r="AZ18" s="79" t="n">
+      <c r="AZ18" s="80" t="n">
         <f aca="false">+BA18/AY18</f>
         <v>50000</v>
       </c>
@@ -3830,7 +3842,7 @@
         <v>375</v>
       </c>
       <c r="BB18" s="59"/>
-      <c r="BC18" s="67" t="n">
+      <c r="BC18" s="68" t="n">
         <f aca="false">+300000000/AX17</f>
         <v>3E+018</v>
       </c>
@@ -3840,88 +3852,88 @@
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="113" t="n">
+      <c r="E19" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="114" t="n">
         <f aca="false">+L19/N19</f>
         <v>6</v>
       </c>
-      <c r="J19" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116" t="n">
+      <c r="J19" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117" t="n">
         <f aca="false">+$I$15</f>
         <v>18</v>
       </c>
-      <c r="M19" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="118" t="n">
+      <c r="M19" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="119" t="n">
         <f aca="false">+$I$16</f>
         <v>3</v>
       </c>
-      <c r="O19" s="99"/>
-      <c r="P19" s="119" t="n">
+      <c r="O19" s="100"/>
+      <c r="P19" s="120" t="n">
         <f aca="false">+S19/U19</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="Q19" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="115"/>
-      <c r="S19" s="120" t="n">
+      <c r="Q19" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="116"/>
+      <c r="S19" s="121" t="n">
         <f aca="false">+P15</f>
         <v>3.14159</v>
       </c>
-      <c r="T19" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="121" t="n">
+      <c r="T19" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="122" t="n">
         <f aca="false">+P16</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="V19" s="103"/>
-      <c r="W19" s="122" t="n">
+      <c r="V19" s="104"/>
+      <c r="W19" s="123" t="n">
         <f aca="false">+Z19/AB19</f>
-        <v>4429525157.2327</v>
-      </c>
-      <c r="X19" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="115"/>
-      <c r="Z19" s="123" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="124" t="n">
         <f aca="false">+Z15</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="AA19" s="124" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB19" s="125" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA19" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB19" s="126" t="n">
         <f aca="false">+Z16</f>
-        <v>6360000</v>
-      </c>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="108" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="109" t="n">
         <f aca="false">+W19^2</f>
-        <v>1.96206931185574E+019</v>
-      </c>
-      <c r="AE19" s="108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="109" t="n">
         <f aca="false">+Z16^2</f>
-        <v>40449600000000</v>
-      </c>
-      <c r="AF19" s="108" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AF19" s="109" t="n">
         <f aca="false">+AB19^2</f>
-        <v>40449600000000</v>
+        <v>40000</v>
       </c>
       <c r="AG19" s="23"/>
       <c r="AH19" s="53"/>
@@ -3938,17 +3950,17 @@
       <c r="AT19" s="22"/>
       <c r="AU19" s="22"/>
       <c r="AV19" s="55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AW19" s="56"/>
-      <c r="AX19" s="78" t="n">
+      <c r="AX19" s="79" t="n">
         <v>7.7E-020</v>
       </c>
       <c r="AY19" s="57" t="n">
         <f aca="false">+300000000*AX19</f>
         <v>2.31E-011</v>
       </c>
-      <c r="AZ19" s="78" t="n">
+      <c r="AZ19" s="79" t="n">
         <f aca="false">+BA19/AY19</f>
         <v>16233766233766.2</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>375</v>
       </c>
       <c r="BB19" s="59"/>
-      <c r="BC19" s="67" t="n">
+      <c r="BC19" s="68" t="n">
         <f aca="false">+300000000/AX18</f>
         <v>1.2E+019</v>
       </c>
@@ -3966,88 +3978,88 @@
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="129" t="n">
+      <c r="E20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="130" t="n">
         <f aca="false">+N20*L20</f>
         <v>6</v>
       </c>
-      <c r="J20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="130"/>
-      <c r="L20" s="131" t="n">
+      <c r="J20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132" t="n">
         <f aca="false">+$I$16</f>
         <v>3</v>
       </c>
-      <c r="M20" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="133" t="n">
+      <c r="M20" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="134" t="n">
         <f aca="false">+$I$14</f>
         <v>2</v>
       </c>
-      <c r="O20" s="99"/>
-      <c r="P20" s="134" t="n">
+      <c r="O20" s="100"/>
+      <c r="P20" s="135" t="n">
         <f aca="false">+U20*S20</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="Q20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="130"/>
-      <c r="S20" s="135" t="n">
+      <c r="Q20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="131"/>
+      <c r="S20" s="136" t="n">
         <f aca="false">+P16</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="T20" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" s="136" t="n">
+      <c r="T20" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="137" t="n">
         <f aca="false">+P14</f>
         <v>2</v>
       </c>
-      <c r="V20" s="103"/>
-      <c r="W20" s="137" t="n">
+      <c r="V20" s="104"/>
+      <c r="W20" s="138" t="n">
         <f aca="false">+AB20*Z20</f>
-        <v>4429525157.2327</v>
-      </c>
-      <c r="X20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="130"/>
-      <c r="Z20" s="138" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="139" t="n">
         <f aca="false">+Z16</f>
-        <v>6360000</v>
-      </c>
-      <c r="AA20" s="139" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB20" s="140" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA20" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" s="141" t="n">
         <f aca="false">+Z14</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="109" t="n">
         <f aca="false">+W20^2</f>
-        <v>1.96206931185574E+019</v>
-      </c>
-      <c r="AE20" s="108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="109" t="n">
         <f aca="false">+Z17^2</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="108" t="n">
+      <c r="AF20" s="109" t="n">
         <f aca="false">+AB20^2</f>
-        <v>485065.195170222</v>
+        <v>0.000225</v>
       </c>
       <c r="AG20" s="23"/>
       <c r="AH20" s="53"/>
@@ -4060,14 +4072,14 @@
       <c r="AO20" s="53"/>
       <c r="AT20" s="22"/>
       <c r="AU20" s="22"/>
-      <c r="AV20" s="141"/>
-      <c r="AW20" s="142"/>
-      <c r="AX20" s="142"/>
-      <c r="AY20" s="142"/>
-      <c r="AZ20" s="142"/>
-      <c r="BA20" s="143"/>
-      <c r="BB20" s="144"/>
-      <c r="BC20" s="67" t="n">
+      <c r="AV20" s="142"/>
+      <c r="AW20" s="143"/>
+      <c r="AX20" s="143"/>
+      <c r="AY20" s="143"/>
+      <c r="AZ20" s="143"/>
+      <c r="BA20" s="144"/>
+      <c r="BB20" s="145"/>
+      <c r="BC20" s="68" t="n">
         <f aca="false">+300000000/AX19</f>
         <v>3.8961038961039E+027</v>
       </c>
@@ -4077,88 +4089,88 @@
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="148" t="n">
+      <c r="E21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="149" t="n">
         <f aca="false">+L21/N21</f>
         <v>2</v>
       </c>
-      <c r="J21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="149"/>
-      <c r="L21" s="150" t="n">
+      <c r="J21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="150"/>
+      <c r="L21" s="151" t="n">
         <f aca="false">+$I$13</f>
         <v>6</v>
       </c>
-      <c r="M21" s="151" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="152" t="n">
+      <c r="M21" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="153" t="n">
         <f aca="false">+$I$16</f>
         <v>3</v>
       </c>
-      <c r="O21" s="99"/>
-      <c r="P21" s="153" t="n">
+      <c r="O21" s="100"/>
+      <c r="P21" s="154" t="n">
         <f aca="false">+S21/U21</f>
         <v>2</v>
       </c>
-      <c r="Q21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="149"/>
-      <c r="S21" s="154" t="n">
+      <c r="Q21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="150"/>
+      <c r="S21" s="155" t="n">
         <f aca="false">+P13</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="T21" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="156" t="n">
+      <c r="T21" s="156" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="157" t="n">
         <f aca="false">+P16</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="V21" s="157"/>
-      <c r="W21" s="158" t="n">
+      <c r="V21" s="158"/>
+      <c r="W21" s="159" t="n">
         <f aca="false">+Z21/AB21</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="X21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="159" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="X21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="160" t="n">
         <f aca="false">+Z13</f>
-        <v>4429525157.2327</v>
-      </c>
-      <c r="AA21" s="160" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB21" s="161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB21" s="162" t="n">
         <f aca="false">+Z16</f>
-        <v>6360000</v>
-      </c>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="108" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="109" t="n">
         <f aca="false">+W21^2</f>
-        <v>485065.195170222</v>
-      </c>
-      <c r="AE21" s="108" t="n">
+        <v>0.000225</v>
+      </c>
+      <c r="AE21" s="109" t="n">
         <f aca="false">+Z18^2</f>
-        <v>7.936491883684E+032</v>
-      </c>
-      <c r="AF21" s="108" t="n">
+        <v>360000</v>
+      </c>
+      <c r="AF21" s="109" t="n">
         <f aca="false">+AB21^2</f>
-        <v>40449600000000</v>
+        <v>40000</v>
       </c>
       <c r="AG21" s="23"/>
       <c r="AH21" s="53"/>
@@ -4185,88 +4197,88 @@
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="165" t="n">
+      <c r="E22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="165" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="166" t="n">
         <f aca="false">+L22/N22</f>
         <v>2</v>
       </c>
-      <c r="J22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="166"/>
-      <c r="L22" s="167" t="n">
+      <c r="J22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="167"/>
+      <c r="L22" s="168" t="n">
         <f aca="false">+$I$13^2</f>
         <v>36</v>
       </c>
-      <c r="M22" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="169" t="n">
+      <c r="M22" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="170" t="n">
         <f aca="false">+$I$15</f>
         <v>18</v>
       </c>
-      <c r="O22" s="99"/>
-      <c r="P22" s="170" t="n">
+      <c r="O22" s="100"/>
+      <c r="P22" s="171" t="n">
         <f aca="false">+S22/U22</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="166"/>
-      <c r="S22" s="171" t="n">
+      <c r="Q22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="167"/>
+      <c r="S22" s="172" t="n">
         <f aca="false">+P13^2</f>
         <v>6.28318</v>
       </c>
-      <c r="T22" s="172" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="173" t="n">
+      <c r="T22" s="173" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="174" t="n">
         <f aca="false">+P15</f>
         <v>3.14159</v>
       </c>
-      <c r="V22" s="103"/>
-      <c r="W22" s="174" t="n">
+      <c r="V22" s="104"/>
+      <c r="W22" s="175" t="n">
         <f aca="false">+Z22/AB22</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="X22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="175" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="X22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="167"/>
+      <c r="Z22" s="176" t="n">
         <f aca="false">+Z13^2</f>
-        <v>1.96206931185574E+019</v>
-      </c>
-      <c r="AA22" s="176" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB22" s="177" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB22" s="178" t="n">
         <f aca="false">+Z15</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="108" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="109" t="n">
         <f aca="false">+W22^2</f>
-        <v>485065.195170222</v>
-      </c>
-      <c r="AE22" s="108" t="n">
+        <v>0.000225</v>
+      </c>
+      <c r="AE22" s="109" t="n">
         <f aca="false">+Z19^2</f>
-        <v>7.936491883684E+032</v>
-      </c>
-      <c r="AF22" s="108" t="n">
+        <v>360000</v>
+      </c>
+      <c r="AF22" s="109" t="n">
         <f aca="false">+AB22^2</f>
-        <v>7.936491883684E+032</v>
+        <v>360000</v>
       </c>
       <c r="AG22" s="23"/>
       <c r="AH22" s="53"/>
@@ -4293,88 +4305,88 @@
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="180" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="181" t="n">
+      <c r="E23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="182" t="n">
         <f aca="false">+L23/N23</f>
         <v>2</v>
       </c>
-      <c r="J23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="182"/>
-      <c r="L23" s="183" t="n">
+      <c r="J23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="183"/>
+      <c r="L23" s="184" t="n">
         <f aca="false">+$I$15</f>
         <v>18</v>
       </c>
-      <c r="M23" s="184" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="185" t="n">
+      <c r="M23" s="185" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="186" t="n">
         <f aca="false">+$I$16^2</f>
         <v>9</v>
       </c>
-      <c r="O23" s="99"/>
-      <c r="P23" s="186" t="n">
+      <c r="O23" s="100"/>
+      <c r="P23" s="187" t="n">
         <f aca="false">+S23/U23</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="182"/>
-      <c r="S23" s="187" t="n">
+      <c r="Q23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="183"/>
+      <c r="S23" s="188" t="n">
         <f aca="false">+P15</f>
         <v>3.14159</v>
       </c>
-      <c r="T23" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="U23" s="188" t="n">
+      <c r="T23" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="189" t="n">
         <f aca="false">+P16^2</f>
         <v>1.570795</v>
       </c>
-      <c r="V23" s="103"/>
-      <c r="W23" s="189" t="n">
+      <c r="V23" s="104"/>
+      <c r="W23" s="190" t="n">
         <f aca="false">+Z23/AB23</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="X23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="182"/>
-      <c r="Z23" s="190" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="X23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="191" t="n">
         <f aca="false">+Z15</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="AA23" s="191" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB23" s="192" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA23" s="192" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB23" s="193" t="n">
         <f aca="false">+Z16^2</f>
-        <v>40449600000000</v>
-      </c>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="108" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="109" t="n">
         <f aca="false">+W23^2</f>
-        <v>485065.195170222</v>
-      </c>
-      <c r="AE23" s="108" t="n">
+        <v>0.000225</v>
+      </c>
+      <c r="AE23" s="109" t="n">
         <f aca="false">+Z20^2</f>
-        <v>40449600000000</v>
-      </c>
-      <c r="AF23" s="108" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AF23" s="109" t="n">
         <f aca="false">+AB23^2</f>
-        <v>1.63617014016E+027</v>
+        <v>1600000000</v>
       </c>
       <c r="AG23" s="23"/>
       <c r="AH23" s="53"/>
@@ -4401,88 +4413,88 @@
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="193" t="s">
+      <c r="D24" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="195" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="196" t="n">
+      <c r="E24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="197" t="n">
         <f aca="false">+L24/N24</f>
         <v>18</v>
       </c>
-      <c r="J24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="197"/>
-      <c r="L24" s="198" t="n">
+      <c r="J24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="198"/>
+      <c r="L24" s="199" t="n">
         <f aca="false">+$I$13^2</f>
         <v>36</v>
       </c>
-      <c r="M24" s="199" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="200" t="n">
+      <c r="M24" s="200" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="201" t="n">
         <f aca="false">+$I$14</f>
         <v>2</v>
       </c>
-      <c r="O24" s="99"/>
-      <c r="P24" s="201" t="n">
+      <c r="O24" s="100"/>
+      <c r="P24" s="202" t="n">
         <f aca="false">+S24/U24</f>
         <v>3.14159</v>
       </c>
-      <c r="Q24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="197"/>
-      <c r="S24" s="202" t="n">
+      <c r="Q24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="198"/>
+      <c r="S24" s="203" t="n">
         <f aca="false">+P13^2</f>
         <v>6.28318</v>
       </c>
-      <c r="T24" s="194" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="203" t="n">
+      <c r="T24" s="195" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="204" t="n">
         <f aca="false">+P14</f>
         <v>2</v>
       </c>
-      <c r="V24" s="103"/>
-      <c r="W24" s="204" t="n">
+      <c r="V24" s="104"/>
+      <c r="W24" s="205" t="n">
         <f aca="false">+Z24/AB24</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="X24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="197"/>
-      <c r="Z24" s="205" t="n">
+        <v>600</v>
+      </c>
+      <c r="X24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="198"/>
+      <c r="Z24" s="206" t="n">
         <f aca="false">+Z13^2</f>
-        <v>1.96206931185574E+019</v>
-      </c>
-      <c r="AA24" s="206" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB24" s="207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="207" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB24" s="208" t="n">
         <f aca="false">+Z14</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="109" t="n">
         <f aca="false">+W24^2</f>
-        <v>7.936491883684E+032</v>
-      </c>
-      <c r="AE24" s="108" t="n">
+        <v>360000</v>
+      </c>
+      <c r="AE24" s="109" t="n">
         <f aca="false">+Z21^2</f>
-        <v>1.96206931185574E+019</v>
-      </c>
-      <c r="AF24" s="108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF24" s="109" t="n">
         <f aca="false">+AB24^2</f>
-        <v>485065.195170222</v>
+        <v>0.000225</v>
       </c>
       <c r="AG24" s="23"/>
       <c r="AH24" s="53"/>
@@ -4498,88 +4510,88 @@
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="208" t="s">
+      <c r="D25" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="210" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="211" t="n">
+      <c r="E25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="93"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="212" t="n">
         <f aca="false">+N25*L25</f>
         <v>18</v>
       </c>
-      <c r="J25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="212"/>
-      <c r="L25" s="213" t="n">
+      <c r="J25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="213"/>
+      <c r="L25" s="214" t="n">
         <f aca="false">+$I$16^2</f>
         <v>9</v>
       </c>
-      <c r="M25" s="214" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="215" t="n">
+      <c r="M25" s="215" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="216" t="n">
         <f aca="false">+$I$14</f>
         <v>2</v>
       </c>
-      <c r="O25" s="99"/>
-      <c r="P25" s="216" t="n">
+      <c r="O25" s="100"/>
+      <c r="P25" s="217" t="n">
         <f aca="false">+U25*S25</f>
         <v>3.14159</v>
       </c>
-      <c r="Q25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" s="212"/>
-      <c r="S25" s="217" t="n">
+      <c r="Q25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="213"/>
+      <c r="S25" s="218" t="n">
         <f aca="false">+P16^2</f>
         <v>1.570795</v>
       </c>
-      <c r="T25" s="218" t="s">
-        <v>37</v>
-      </c>
-      <c r="U25" s="219" t="n">
+      <c r="T25" s="219" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="220" t="n">
         <f aca="false">+P14</f>
         <v>2</v>
       </c>
-      <c r="V25" s="220"/>
-      <c r="W25" s="221" t="n">
+      <c r="V25" s="221"/>
+      <c r="W25" s="222" t="n">
         <f aca="false">+AB25*Z25</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="X25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="212"/>
-      <c r="Z25" s="222" t="n">
+        <v>600</v>
+      </c>
+      <c r="X25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="213"/>
+      <c r="Z25" s="223" t="n">
         <f aca="false">+Z16^2</f>
-        <v>40449600000000</v>
-      </c>
-      <c r="AA25" s="223" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB25" s="224" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AA25" s="224" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB25" s="225" t="n">
         <f aca="false">+Z14</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="109" t="n">
         <f aca="false">+W25^2</f>
-        <v>7.936491883684E+032</v>
-      </c>
-      <c r="AE25" s="108" t="n">
+        <v>360000</v>
+      </c>
+      <c r="AE25" s="109" t="n">
         <f aca="false">+Z22^2</f>
-        <v>3.84971598452606E+038</v>
-      </c>
-      <c r="AF25" s="108" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF25" s="109" t="n">
         <f aca="false">+AB25^2</f>
-        <v>485065.195170222</v>
+        <v>0.000225</v>
       </c>
       <c r="AG25" s="23"/>
       <c r="AH25" s="53"/>
@@ -4595,88 +4607,88 @@
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="225" t="s">
+      <c r="D26" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="227" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="228" t="n">
+      <c r="E26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="228" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="229" t="n">
         <f aca="false">+L26*N26</f>
         <v>18</v>
       </c>
-      <c r="J26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="229"/>
-      <c r="L26" s="230" t="n">
+      <c r="J26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="230"/>
+      <c r="L26" s="231" t="n">
         <f aca="false">+$I$13</f>
         <v>6</v>
       </c>
-      <c r="M26" s="231" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="232" t="n">
+      <c r="M26" s="232" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="233" t="n">
         <f aca="false">+$I$16</f>
         <v>3</v>
       </c>
-      <c r="O26" s="99"/>
-      <c r="P26" s="233" t="n">
+      <c r="O26" s="100"/>
+      <c r="P26" s="234" t="n">
         <f aca="false">+S26*U26</f>
         <v>3.14159</v>
       </c>
-      <c r="Q26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="229"/>
-      <c r="S26" s="234" t="n">
+      <c r="Q26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="230"/>
+      <c r="S26" s="235" t="n">
         <f aca="false">+P13</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="T26" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="U26" s="235" t="n">
+      <c r="T26" s="227" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="236" t="n">
         <f aca="false">+P16</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="V26" s="103"/>
-      <c r="W26" s="236" t="n">
+      <c r="V26" s="104"/>
+      <c r="W26" s="237" t="n">
         <f aca="false">+Z26*AB26</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="X26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="229"/>
-      <c r="Z26" s="237" t="n">
+        <v>600</v>
+      </c>
+      <c r="X26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="230"/>
+      <c r="Z26" s="238" t="n">
         <f aca="false">+Z13</f>
-        <v>4429525157.2327</v>
-      </c>
-      <c r="AA26" s="238" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB26" s="239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="239" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB26" s="240" t="n">
         <f aca="false">+Z16</f>
-        <v>6360000</v>
-      </c>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="108" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="109" t="n">
         <f aca="false">+W26^2</f>
-        <v>7.936491883684E+032</v>
-      </c>
-      <c r="AE26" s="108" t="n">
+        <v>360000</v>
+      </c>
+      <c r="AE26" s="109" t="n">
         <f aca="false">+Z23^2</f>
-        <v>7.936491883684E+032</v>
-      </c>
-      <c r="AF26" s="108" t="n">
+        <v>360000</v>
+      </c>
+      <c r="AF26" s="109" t="n">
         <f aca="false">+AB26^2</f>
-        <v>40449600000000</v>
+        <v>40000</v>
       </c>
       <c r="AG26" s="23"/>
       <c r="AH26" s="53"/>
@@ -4692,88 +4704,88 @@
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="240" t="s">
+      <c r="D27" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="243" t="n">
+      <c r="E27" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="243" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="244" t="n">
         <f aca="false">+L27/N27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="244" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="245"/>
-      <c r="L27" s="246" t="n">
+      <c r="J27" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="246"/>
+      <c r="L27" s="247" t="n">
         <f aca="false">+$I$13</f>
         <v>6</v>
       </c>
-      <c r="M27" s="247" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="248" t="n">
+      <c r="M27" s="248" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="249" t="n">
         <f aca="false">+$I$14</f>
         <v>2</v>
       </c>
-      <c r="O27" s="99"/>
-      <c r="P27" s="249" t="n">
+      <c r="O27" s="100"/>
+      <c r="P27" s="250" t="n">
         <f aca="false">+S27/U27</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="Q27" s="244" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="245"/>
-      <c r="S27" s="250" t="n">
+      <c r="Q27" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="246"/>
+      <c r="S27" s="251" t="n">
         <f aca="false">+P13</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="T27" s="251" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="252" t="n">
+      <c r="T27" s="252" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="253" t="n">
         <f aca="false">+P14</f>
         <v>2</v>
       </c>
-      <c r="V27" s="157"/>
-      <c r="W27" s="253" t="n">
+      <c r="V27" s="158"/>
+      <c r="W27" s="254" t="n">
         <f aca="false">+Z27/AB27</f>
-        <v>6360000</v>
-      </c>
-      <c r="X27" s="244" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="245"/>
-      <c r="Z27" s="254" t="n">
+        <v>200</v>
+      </c>
+      <c r="X27" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="246"/>
+      <c r="Z27" s="255" t="n">
         <f aca="false">+Z13</f>
-        <v>4429525157.2327</v>
-      </c>
-      <c r="AA27" s="255" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB27" s="256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="256" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB27" s="257" t="n">
         <f aca="false">+Z14</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="109" t="n">
         <f aca="false">+W27^2</f>
-        <v>40449600000000</v>
-      </c>
-      <c r="AE27" s="108" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AE27" s="109" t="n">
         <f aca="false">+Z24^2</f>
-        <v>3.84971598452606E+038</v>
-      </c>
-      <c r="AF27" s="108" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF27" s="109" t="n">
         <f aca="false">+AB27^2</f>
-        <v>485065.195170222</v>
+        <v>0.000225</v>
       </c>
       <c r="AG27" s="23"/>
       <c r="AH27" s="53"/>
@@ -4800,88 +4812,88 @@
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="257" t="s">
+      <c r="D28" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="259" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="260" t="n">
+      <c r="E28" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="260" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="261" t="n">
         <f aca="false">+L28/N28</f>
         <v>3</v>
       </c>
-      <c r="J28" s="261" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="262"/>
-      <c r="L28" s="263" t="n">
+      <c r="J28" s="262" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="263"/>
+      <c r="L28" s="264" t="n">
         <f aca="false">+$I$15</f>
         <v>18</v>
       </c>
-      <c r="M28" s="264" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="265" t="n">
+      <c r="M28" s="265" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="266" t="n">
         <f aca="false">+$I$13</f>
         <v>6</v>
       </c>
-      <c r="O28" s="99"/>
-      <c r="P28" s="266" t="n">
+      <c r="O28" s="100"/>
+      <c r="P28" s="267" t="n">
         <f aca="false">+S28/U28</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="Q28" s="261" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="262"/>
-      <c r="S28" s="267" t="n">
+      <c r="Q28" s="262" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="263"/>
+      <c r="S28" s="268" t="n">
         <f aca="false">+P15</f>
         <v>3.14159</v>
       </c>
-      <c r="T28" s="268" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="269" t="n">
+      <c r="T28" s="269" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="270" t="n">
         <f aca="false">+P13</f>
         <v>2.50662721600161</v>
       </c>
-      <c r="V28" s="103"/>
-      <c r="W28" s="270" t="n">
+      <c r="V28" s="104"/>
+      <c r="W28" s="271" t="n">
         <f aca="false">+Z28/AB28</f>
-        <v>6360000</v>
-      </c>
-      <c r="X28" s="261" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="262"/>
-      <c r="Z28" s="271" t="n">
+        <v>200</v>
+      </c>
+      <c r="X28" s="262" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="263"/>
+      <c r="Z28" s="272" t="n">
         <f aca="false">+Z15</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="AA28" s="272" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB28" s="273" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA28" s="273" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB28" s="274" t="n">
         <f aca="false">+Z13</f>
-        <v>4429525157.2327</v>
-      </c>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="109" t="n">
         <f aca="false">+W28^2</f>
-        <v>40449600000000</v>
-      </c>
-      <c r="AE28" s="108" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AE28" s="109" t="n">
         <f aca="false">+Z25^2</f>
-        <v>1.63617014016E+027</v>
-      </c>
-      <c r="AF28" s="108" t="n">
+        <v>1600000000</v>
+      </c>
+      <c r="AF28" s="109" t="n">
         <f aca="false">+AB28^2</f>
-        <v>1.96206931185574E+019</v>
+        <v>9</v>
       </c>
       <c r="AG28" s="23"/>
       <c r="AH28" s="53"/>
@@ -4908,94 +4920,94 @@
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="274" t="s">
+      <c r="D29" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="275" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="276" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="277" t="n">
+      <c r="E29" s="276" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="277" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="278" t="n">
         <f aca="false">+SQRT(L29/N29)</f>
         <v>3</v>
       </c>
-      <c r="J29" s="278" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="279" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="280" t="n">
+      <c r="J29" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="280" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="281" t="n">
         <f aca="false">+$I$15</f>
         <v>18</v>
       </c>
-      <c r="M29" s="281" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="282" t="n">
+      <c r="M29" s="282" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="283" t="n">
         <f aca="false">+$I$14</f>
         <v>2</v>
       </c>
-      <c r="O29" s="99"/>
-      <c r="P29" s="283" t="n">
+      <c r="O29" s="100"/>
+      <c r="P29" s="284" t="n">
         <f aca="false">+SQRT(S29/U29)</f>
         <v>1.25331360800081</v>
       </c>
-      <c r="Q29" s="278" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="279" t="s">
-        <v>52</v>
-      </c>
-      <c r="S29" s="284" t="n">
+      <c r="Q29" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="280" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="285" t="n">
         <f aca="false">+P15</f>
         <v>3.14159</v>
       </c>
-      <c r="T29" s="278" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="285" t="n">
+      <c r="T29" s="279" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="286" t="n">
         <f aca="false">+P14</f>
         <v>2</v>
       </c>
-      <c r="V29" s="103"/>
-      <c r="W29" s="286" t="n">
+      <c r="V29" s="104"/>
+      <c r="W29" s="287" t="n">
         <f aca="false">+SQRT(Z29/AB29)</f>
-        <v>6360000</v>
-      </c>
-      <c r="X29" s="278" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="279" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z29" s="287" t="n">
+        <v>200</v>
+      </c>
+      <c r="X29" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="280" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z29" s="288" t="n">
         <f aca="false">+Z15</f>
-        <v>28171780000000000</v>
-      </c>
-      <c r="AA29" s="288" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB29" s="289" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA29" s="289" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB29" s="290" t="n">
         <f aca="false">+Z14</f>
-        <v>696.466219690677</v>
-      </c>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="108" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="109" t="n">
         <f aca="false">+W29^2</f>
-        <v>40449600000000</v>
-      </c>
-      <c r="AE29" s="108" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AE29" s="109" t="n">
         <f aca="false">+Z26^2</f>
-        <v>1.96206931185574E+019</v>
-      </c>
-      <c r="AF29" s="108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF29" s="109" t="n">
         <f aca="false">+AB29^2</f>
-        <v>485065.195170222</v>
+        <v>0.000225</v>
       </c>
       <c r="AG29" s="23"/>
       <c r="AH29" s="53"/>
@@ -5045,7 +5057,7 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="24"/>
       <c r="Z30" s="30"/>
-      <c r="AA30" s="290"/>
+      <c r="AA30" s="291"/>
       <c r="AB30" s="35"/>
       <c r="AC30" s="25"/>
       <c r="AD30" s="25"/>
@@ -5107,7 +5119,7 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="24"/>
       <c r="Z31" s="30"/>
-      <c r="AA31" s="290"/>
+      <c r="AA31" s="291"/>
       <c r="AB31" s="35"/>
       <c r="AC31" s="25"/>
       <c r="AD31" s="25"/>
@@ -5166,7 +5178,7 @@
       <c r="X32" s="25"/>
       <c r="Y32" s="24"/>
       <c r="Z32" s="30"/>
-      <c r="AA32" s="290"/>
+      <c r="AA32" s="291"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="25"/>
       <c r="AD32" s="25"/>
@@ -5197,7 +5209,7 @@
       <c r="AZ32" s="58" t="n">
         <v>0.000123984193</v>
       </c>
-      <c r="BA32" s="291" t="n">
+      <c r="BA32" s="292" t="n">
         <f aca="false">+AY32*AZ32</f>
         <v>371.952579</v>
       </c>
@@ -5230,7 +5242,7 @@
       <c r="X33" s="25"/>
       <c r="Y33" s="24"/>
       <c r="Z33" s="30"/>
-      <c r="AA33" s="290"/>
+      <c r="AA33" s="291"/>
       <c r="AB33" s="35"/>
       <c r="AC33" s="25"/>
       <c r="AD33" s="25"/>
@@ -5251,10 +5263,10 @@
       <c r="AT33" s="22"/>
       <c r="AU33" s="22"/>
       <c r="AV33" s="55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AW33" s="56"/>
-      <c r="AX33" s="78" t="n">
+      <c r="AX33" s="79" t="n">
         <f aca="false">+AR33/10000</f>
         <v>0.0015</v>
       </c>
@@ -5265,7 +5277,7 @@
       <c r="AZ33" s="58" t="n">
         <v>0.000826561286666667</v>
       </c>
-      <c r="BA33" s="291" t="n">
+      <c r="BA33" s="292" t="n">
         <f aca="false">+AY33*AZ33</f>
         <v>371.952579</v>
       </c>
@@ -5304,7 +5316,7 @@
       <c r="X34" s="25"/>
       <c r="Y34" s="24"/>
       <c r="Z34" s="30"/>
-      <c r="AA34" s="290"/>
+      <c r="AA34" s="291"/>
       <c r="AB34" s="35"/>
       <c r="AC34" s="25"/>
       <c r="AD34" s="25"/>
@@ -5325,10 +5337,10 @@
       <c r="AT34" s="22"/>
       <c r="AU34" s="22"/>
       <c r="AV34" s="55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AW34" s="56"/>
-      <c r="AX34" s="78" t="n">
+      <c r="AX34" s="79" t="n">
         <f aca="false">+AR34/10000</f>
         <v>0.0008</v>
       </c>
@@ -5339,7 +5351,7 @@
       <c r="AZ34" s="58" t="n">
         <v>0.0015498024125</v>
       </c>
-      <c r="BA34" s="291" t="n">
+      <c r="BA34" s="292" t="n">
         <f aca="false">+AY34*AZ34</f>
         <v>371.952579</v>
       </c>
@@ -5378,7 +5390,7 @@
       <c r="X35" s="25"/>
       <c r="Y35" s="24"/>
       <c r="Z35" s="30"/>
-      <c r="AA35" s="290"/>
+      <c r="AA35" s="291"/>
       <c r="AB35" s="35"/>
       <c r="AC35" s="25"/>
       <c r="AD35" s="25"/>
@@ -5399,10 +5411,10 @@
       <c r="AT35" s="22"/>
       <c r="AU35" s="22"/>
       <c r="AV35" s="55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AW35" s="56"/>
-      <c r="AX35" s="78" t="n">
+      <c r="AX35" s="79" t="n">
         <f aca="false">+AR35/10000</f>
         <v>0.0003</v>
       </c>
@@ -5413,7 +5425,7 @@
       <c r="AZ35" s="58" t="n">
         <v>0.00413280643333333</v>
       </c>
-      <c r="BA35" s="291" t="n">
+      <c r="BA35" s="292" t="n">
         <f aca="false">+AY35*AZ35</f>
         <v>371.952579</v>
       </c>
@@ -5452,7 +5464,7 @@
       <c r="X36" s="25"/>
       <c r="Y36" s="24"/>
       <c r="Z36" s="30"/>
-      <c r="AA36" s="290"/>
+      <c r="AA36" s="291"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="25"/>
       <c r="AD36" s="25"/>
@@ -5473,10 +5485,10 @@
       <c r="AT36" s="22"/>
       <c r="AU36" s="22"/>
       <c r="AV36" s="55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AW36" s="56"/>
-      <c r="AX36" s="78" t="n">
+      <c r="AX36" s="79" t="n">
         <f aca="false">+AR36/10000</f>
         <v>0.00014</v>
       </c>
@@ -5487,7 +5499,7 @@
       <c r="AZ36" s="58" t="n">
         <v>0.00885601378571429</v>
       </c>
-      <c r="BA36" s="291" t="n">
+      <c r="BA36" s="292" t="n">
         <f aca="false">+AY36*AZ36</f>
         <v>371.952579</v>
       </c>
@@ -5526,7 +5538,7 @@
       <c r="X37" s="25"/>
       <c r="Y37" s="24"/>
       <c r="Z37" s="30"/>
-      <c r="AA37" s="290"/>
+      <c r="AA37" s="291"/>
       <c r="AB37" s="35"/>
       <c r="AC37" s="25"/>
       <c r="AD37" s="25"/>
@@ -5547,10 +5559,10 @@
       <c r="AT37" s="22"/>
       <c r="AU37" s="22"/>
       <c r="AV37" s="55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AW37" s="56"/>
-      <c r="AX37" s="78" t="n">
+      <c r="AX37" s="79" t="n">
         <f aca="false">+AR37/10000</f>
         <v>7.5E-005</v>
       </c>
@@ -5561,7 +5573,7 @@
       <c r="AZ37" s="58" t="n">
         <v>0.0165312257333333</v>
       </c>
-      <c r="BA37" s="291" t="n">
+      <c r="BA37" s="292" t="n">
         <f aca="false">+AY37*AZ37</f>
         <v>371.952579</v>
       </c>
@@ -5600,7 +5612,7 @@
       <c r="X38" s="25"/>
       <c r="Y38" s="24"/>
       <c r="Z38" s="30"/>
-      <c r="AA38" s="290"/>
+      <c r="AA38" s="291"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="25"/>
       <c r="AD38" s="25"/>
@@ -5611,14 +5623,14 @@
       <c r="AI38" s="23"/>
       <c r="AJ38" s="53"/>
       <c r="AK38" s="23"/>
-      <c r="AL38" s="292"/>
+      <c r="AL38" s="293"/>
       <c r="AM38" s="26"/>
       <c r="AN38" s="54"/>
       <c r="AO38" s="53"/>
       <c r="AT38" s="22"/>
       <c r="AU38" s="22"/>
       <c r="AV38" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW38" s="56"/>
       <c r="AX38" s="57" t="n">
@@ -5631,45 +5643,45 @@
       <c r="AZ38" s="58" t="n">
         <v>1.77120275714286</v>
       </c>
-      <c r="BA38" s="291" t="n">
+      <c r="BA38" s="292" t="n">
         <f aca="false">+AY38*AZ38</f>
         <v>371.952579</v>
       </c>
       <c r="BB38" s="59"/>
-      <c r="BC38" s="67" t="n">
+      <c r="BC38" s="68" t="n">
         <f aca="false">+AY38*AZ38</f>
         <v>371.952579</v>
       </c>
       <c r="BD38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="293"/>
+      <c r="B39" s="294"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="86"/>
+      <c r="D39" s="294"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
-      <c r="K39" s="293"/>
-      <c r="L39" s="293"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="294"/>
-      <c r="O39" s="294"/>
+      <c r="K39" s="294"/>
+      <c r="L39" s="294"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="295"/>
+      <c r="O39" s="295"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
-      <c r="R39" s="293"/>
-      <c r="S39" s="293"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="294"/>
+      <c r="R39" s="294"/>
+      <c r="S39" s="294"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="295"/>
       <c r="V39" s="28"/>
-      <c r="W39" s="295"/>
+      <c r="W39" s="296"/>
       <c r="X39" s="23"/>
-      <c r="Y39" s="293"/>
-      <c r="Z39" s="296"/>
-      <c r="AA39" s="297"/>
-      <c r="AB39" s="298"/>
+      <c r="Y39" s="294"/>
+      <c r="Z39" s="297"/>
+      <c r="AA39" s="298"/>
+      <c r="AB39" s="299"/>
       <c r="AC39" s="23"/>
       <c r="AD39" s="23"/>
       <c r="AE39" s="23"/>
@@ -5686,7 +5698,7 @@
       <c r="AT39" s="22"/>
       <c r="AU39" s="22"/>
       <c r="AV39" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW39" s="56"/>
       <c r="AX39" s="57" t="n">
@@ -5699,42 +5711,42 @@
       <c r="AZ39" s="58" t="n">
         <v>3.87450603125</v>
       </c>
-      <c r="BA39" s="291" t="n">
+      <c r="BA39" s="292" t="n">
         <f aca="false">+AY39*AZ39</f>
         <v>371.952579</v>
       </c>
       <c r="BB39" s="59"/>
-      <c r="BC39" s="67"/>
+      <c r="BC39" s="68"/>
       <c r="BD39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="293"/>
+      <c r="B40" s="294"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="86"/>
+      <c r="D40" s="294"/>
+      <c r="E40" s="87"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
-      <c r="K40" s="293"/>
-      <c r="L40" s="293"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="294"/>
-      <c r="O40" s="294"/>
+      <c r="K40" s="294"/>
+      <c r="L40" s="294"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="295"/>
+      <c r="O40" s="295"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
-      <c r="R40" s="293"/>
-      <c r="S40" s="293"/>
-      <c r="T40" s="86"/>
-      <c r="U40" s="294"/>
+      <c r="R40" s="294"/>
+      <c r="S40" s="294"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="295"/>
       <c r="V40" s="28"/>
-      <c r="W40" s="295"/>
+      <c r="W40" s="296"/>
       <c r="X40" s="23"/>
-      <c r="Y40" s="293"/>
-      <c r="Z40" s="296"/>
-      <c r="AA40" s="297"/>
-      <c r="AB40" s="298"/>
+      <c r="Y40" s="294"/>
+      <c r="Z40" s="297"/>
+      <c r="AA40" s="298"/>
+      <c r="AB40" s="299"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
@@ -5750,55 +5762,55 @@
       <c r="AO40" s="53"/>
       <c r="AT40" s="22"/>
       <c r="AV40" s="55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AW40" s="56"/>
-      <c r="AX40" s="78" t="n">
+      <c r="AX40" s="79" t="n">
         <v>1E-008</v>
       </c>
-      <c r="AY40" s="79" t="n">
+      <c r="AY40" s="80" t="n">
         <f aca="false">+300000000*AX40</f>
         <v>3</v>
       </c>
-      <c r="AZ40" s="66" t="n">
+      <c r="AZ40" s="67" t="n">
         <v>123.984193</v>
       </c>
-      <c r="BA40" s="291" t="n">
+      <c r="BA40" s="292" t="n">
         <f aca="false">+AY40*AZ40</f>
         <v>371.952579</v>
       </c>
-      <c r="BB40" s="80"/>
-      <c r="BC40" s="67"/>
+      <c r="BB40" s="81"/>
+      <c r="BC40" s="68"/>
       <c r="BD40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="293"/>
+      <c r="B41" s="294"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="293"/>
-      <c r="E41" s="86"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="87"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
-      <c r="K41" s="293"/>
-      <c r="L41" s="293"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="294"/>
-      <c r="O41" s="294"/>
+      <c r="K41" s="294"/>
+      <c r="L41" s="294"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="295"/>
+      <c r="O41" s="295"/>
       <c r="P41" s="23"/>
       <c r="Q41" s="23"/>
-      <c r="R41" s="293"/>
-      <c r="S41" s="293"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="294"/>
+      <c r="R41" s="294"/>
+      <c r="S41" s="294"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="295"/>
       <c r="V41" s="28"/>
-      <c r="W41" s="295"/>
+      <c r="W41" s="296"/>
       <c r="X41" s="23"/>
-      <c r="Y41" s="293"/>
-      <c r="Z41" s="296"/>
-      <c r="AA41" s="297"/>
-      <c r="AB41" s="298"/>
+      <c r="Y41" s="294"/>
+      <c r="Z41" s="297"/>
+      <c r="AA41" s="298"/>
+      <c r="AB41" s="299"/>
       <c r="AC41" s="23"/>
       <c r="AD41" s="23"/>
       <c r="AE41" s="23"/>
@@ -5815,55 +5827,55 @@
       <c r="AT41" s="22"/>
       <c r="AU41" s="22"/>
       <c r="AV41" s="55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AW41" s="56"/>
-      <c r="AX41" s="78" t="n">
+      <c r="AX41" s="79" t="n">
         <v>1E-010</v>
       </c>
       <c r="AY41" s="57" t="n">
         <f aca="false">+300000000*AX41</f>
         <v>0.03</v>
       </c>
-      <c r="AZ41" s="79" t="n">
+      <c r="AZ41" s="80" t="n">
         <v>12398.4193</v>
       </c>
-      <c r="BA41" s="291" t="n">
+      <c r="BA41" s="292" t="n">
         <f aca="false">+AY41*AZ41</f>
         <v>371.952579</v>
       </c>
-      <c r="BB41" s="88"/>
-      <c r="BC41" s="67"/>
+      <c r="BB41" s="89"/>
+      <c r="BC41" s="68"/>
       <c r="BD41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="293"/>
+      <c r="B42" s="294"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="293"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="294"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
-      <c r="K42" s="293"/>
-      <c r="L42" s="293"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="294"/>
-      <c r="O42" s="294"/>
+      <c r="K42" s="294"/>
+      <c r="L42" s="294"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="295"/>
+      <c r="O42" s="295"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>
-      <c r="R42" s="293"/>
-      <c r="S42" s="293"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="294"/>
+      <c r="R42" s="294"/>
+      <c r="S42" s="294"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="295"/>
       <c r="V42" s="28"/>
-      <c r="W42" s="295"/>
+      <c r="W42" s="296"/>
       <c r="X42" s="23"/>
-      <c r="Y42" s="293"/>
-      <c r="Z42" s="296"/>
-      <c r="AA42" s="297"/>
-      <c r="AB42" s="298"/>
+      <c r="Y42" s="294"/>
+      <c r="Z42" s="297"/>
+      <c r="AA42" s="298"/>
+      <c r="AB42" s="299"/>
       <c r="AC42" s="23"/>
       <c r="AD42" s="23"/>
       <c r="AE42" s="23"/>
@@ -5880,55 +5892,55 @@
       <c r="AT42" s="22"/>
       <c r="AU42" s="22"/>
       <c r="AV42" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AW42" s="56"/>
-      <c r="AX42" s="78" t="n">
+      <c r="AX42" s="79" t="n">
         <v>2.5E-011</v>
       </c>
       <c r="AY42" s="57" t="n">
         <f aca="false">+300000000*AX42</f>
         <v>0.0075</v>
       </c>
-      <c r="AZ42" s="79" t="n">
+      <c r="AZ42" s="80" t="n">
         <v>49593.6772</v>
       </c>
-      <c r="BA42" s="291" t="n">
+      <c r="BA42" s="292" t="n">
         <f aca="false">+AY42*AZ42</f>
         <v>371.952579</v>
       </c>
       <c r="BB42" s="59"/>
-      <c r="BC42" s="67"/>
+      <c r="BC42" s="68"/>
       <c r="BD42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="293"/>
+      <c r="B43" s="294"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="294"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="293"/>
-      <c r="L43" s="293"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="294"/>
-      <c r="O43" s="294"/>
+      <c r="K43" s="294"/>
+      <c r="L43" s="294"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="295"/>
+      <c r="O43" s="295"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
-      <c r="R43" s="293"/>
-      <c r="S43" s="293"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="294"/>
+      <c r="R43" s="294"/>
+      <c r="S43" s="294"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="295"/>
       <c r="V43" s="28"/>
-      <c r="W43" s="295"/>
+      <c r="W43" s="296"/>
       <c r="X43" s="23"/>
-      <c r="Y43" s="293"/>
-      <c r="Z43" s="296"/>
-      <c r="AA43" s="297"/>
-      <c r="AB43" s="298"/>
+      <c r="Y43" s="294"/>
+      <c r="Z43" s="297"/>
+      <c r="AA43" s="298"/>
+      <c r="AB43" s="299"/>
       <c r="AC43" s="23"/>
       <c r="AD43" s="23"/>
       <c r="AE43" s="23"/>
@@ -5945,55 +5957,55 @@
       <c r="AT43" s="22"/>
       <c r="AU43" s="22"/>
       <c r="AV43" s="55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AW43" s="56"/>
-      <c r="AX43" s="78" t="n">
+      <c r="AX43" s="79" t="n">
         <v>7.7E-020</v>
       </c>
       <c r="AY43" s="57" t="n">
         <f aca="false">+300000000*AX43</f>
         <v>2.31E-011</v>
       </c>
-      <c r="AZ43" s="78" t="n">
+      <c r="AZ43" s="79" t="n">
         <v>16101843246753.2</v>
       </c>
-      <c r="BA43" s="291" t="n">
+      <c r="BA43" s="292" t="n">
         <f aca="false">+AY43*AZ43</f>
         <v>371.952579</v>
       </c>
       <c r="BB43" s="59"/>
-      <c r="BC43" s="67"/>
+      <c r="BC43" s="68"/>
       <c r="BD43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="293"/>
+      <c r="B44" s="294"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="293"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="294"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="293"/>
-      <c r="L44" s="293"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="294"/>
-      <c r="O44" s="294"/>
+      <c r="K44" s="294"/>
+      <c r="L44" s="294"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="295"/>
+      <c r="O44" s="295"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
-      <c r="R44" s="293"/>
-      <c r="S44" s="293"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="294"/>
+      <c r="R44" s="294"/>
+      <c r="S44" s="294"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="295"/>
       <c r="V44" s="28"/>
-      <c r="W44" s="295"/>
+      <c r="W44" s="296"/>
       <c r="X44" s="23"/>
-      <c r="Y44" s="293"/>
-      <c r="Z44" s="296"/>
-      <c r="AA44" s="297"/>
-      <c r="AB44" s="298"/>
+      <c r="Y44" s="294"/>
+      <c r="Z44" s="297"/>
+      <c r="AA44" s="298"/>
+      <c r="AB44" s="299"/>
       <c r="AC44" s="23"/>
       <c r="AD44" s="23"/>
       <c r="AE44" s="23"/>
@@ -6003,50 +6015,50 @@
       <c r="AI44" s="23"/>
       <c r="AJ44" s="53"/>
       <c r="AK44" s="23"/>
-      <c r="AL44" s="292"/>
+      <c r="AL44" s="293"/>
       <c r="AM44" s="26"/>
       <c r="AN44" s="54"/>
       <c r="AO44" s="53"/>
       <c r="AT44" s="22"/>
       <c r="AU44" s="22"/>
-      <c r="AV44" s="141"/>
-      <c r="AW44" s="142"/>
-      <c r="AX44" s="142"/>
-      <c r="AY44" s="142"/>
-      <c r="AZ44" s="142"/>
-      <c r="BA44" s="143"/>
-      <c r="BB44" s="144"/>
-      <c r="BC44" s="67"/>
+      <c r="AV44" s="142"/>
+      <c r="AW44" s="143"/>
+      <c r="AX44" s="143"/>
+      <c r="AY44" s="143"/>
+      <c r="AZ44" s="143"/>
+      <c r="BA44" s="144"/>
+      <c r="BB44" s="145"/>
+      <c r="BC44" s="68"/>
       <c r="BD44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="293"/>
+      <c r="B45" s="294"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="86"/>
+      <c r="D45" s="294"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
-      <c r="K45" s="293"/>
-      <c r="L45" s="293"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="294"/>
-      <c r="O45" s="294"/>
+      <c r="K45" s="294"/>
+      <c r="L45" s="294"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="295"/>
+      <c r="O45" s="295"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="23"/>
-      <c r="R45" s="293"/>
-      <c r="S45" s="293"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="294"/>
+      <c r="R45" s="294"/>
+      <c r="S45" s="294"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="295"/>
       <c r="V45" s="28"/>
-      <c r="W45" s="295"/>
+      <c r="W45" s="296"/>
       <c r="X45" s="23"/>
-      <c r="Y45" s="293"/>
-      <c r="Z45" s="296"/>
-      <c r="AA45" s="297"/>
-      <c r="AB45" s="298"/>
+      <c r="Y45" s="294"/>
+      <c r="Z45" s="297"/>
+      <c r="AA45" s="298"/>
+      <c r="AB45" s="299"/>
       <c r="AC45" s="23"/>
       <c r="AD45" s="23"/>
       <c r="AE45" s="23"/>
@@ -6073,33 +6085,33 @@
       <c r="BD45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="293"/>
+      <c r="B46" s="294"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="294"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
-      <c r="K46" s="293"/>
-      <c r="L46" s="293"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="294"/>
-      <c r="O46" s="294"/>
+      <c r="K46" s="294"/>
+      <c r="L46" s="294"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="295"/>
+      <c r="O46" s="295"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
-      <c r="R46" s="293"/>
-      <c r="S46" s="293"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="294"/>
+      <c r="R46" s="294"/>
+      <c r="S46" s="294"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="295"/>
       <c r="V46" s="28"/>
-      <c r="W46" s="295"/>
+      <c r="W46" s="296"/>
       <c r="X46" s="23"/>
-      <c r="Y46" s="293"/>
-      <c r="Z46" s="296"/>
-      <c r="AA46" s="297"/>
-      <c r="AB46" s="298"/>
+      <c r="Y46" s="294"/>
+      <c r="Z46" s="297"/>
+      <c r="AA46" s="298"/>
+      <c r="AB46" s="299"/>
       <c r="AC46" s="23"/>
       <c r="AD46" s="23"/>
       <c r="AE46" s="23"/>
@@ -6125,33 +6137,33 @@
       <c r="BD46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="293"/>
+      <c r="B47" s="294"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="294"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="293"/>
-      <c r="L47" s="293"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="294"/>
-      <c r="O47" s="294"/>
+      <c r="K47" s="294"/>
+      <c r="L47" s="294"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="295"/>
+      <c r="O47" s="295"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
-      <c r="R47" s="293"/>
-      <c r="S47" s="293"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="294"/>
+      <c r="R47" s="294"/>
+      <c r="S47" s="294"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="295"/>
       <c r="V47" s="28"/>
-      <c r="W47" s="295"/>
+      <c r="W47" s="296"/>
       <c r="X47" s="23"/>
-      <c r="Y47" s="293"/>
-      <c r="Z47" s="296"/>
-      <c r="AA47" s="297"/>
-      <c r="AB47" s="298"/>
+      <c r="Y47" s="294"/>
+      <c r="Z47" s="297"/>
+      <c r="AA47" s="298"/>
+      <c r="AB47" s="299"/>
       <c r="AC47" s="23"/>
       <c r="AD47" s="23"/>
       <c r="AE47" s="23"/>
@@ -6177,33 +6189,33 @@
       <c r="BD47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="293"/>
+      <c r="B48" s="294"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="293"/>
-      <c r="E48" s="86"/>
+      <c r="D48" s="294"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="293"/>
-      <c r="L48" s="293"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="294"/>
-      <c r="O48" s="294"/>
+      <c r="K48" s="294"/>
+      <c r="L48" s="294"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="295"/>
+      <c r="O48" s="295"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
-      <c r="R48" s="293"/>
-      <c r="S48" s="293"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="294"/>
+      <c r="R48" s="294"/>
+      <c r="S48" s="294"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="295"/>
       <c r="V48" s="28"/>
-      <c r="W48" s="295"/>
+      <c r="W48" s="296"/>
       <c r="X48" s="23"/>
-      <c r="Y48" s="293"/>
-      <c r="Z48" s="296"/>
-      <c r="AA48" s="297"/>
-      <c r="AB48" s="298"/>
+      <c r="Y48" s="294"/>
+      <c r="Z48" s="297"/>
+      <c r="AA48" s="298"/>
+      <c r="AB48" s="299"/>
       <c r="AC48" s="23"/>
       <c r="AD48" s="23"/>
       <c r="AE48" s="23"/>
@@ -6219,33 +6231,33 @@
       <c r="AO48" s="53"/>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="293"/>
+      <c r="B49" s="294"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="293"/>
-      <c r="E49" s="86"/>
+      <c r="D49" s="294"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="293"/>
-      <c r="L49" s="293"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="294"/>
-      <c r="O49" s="294"/>
+      <c r="K49" s="294"/>
+      <c r="L49" s="294"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="295"/>
+      <c r="O49" s="295"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
-      <c r="R49" s="293"/>
-      <c r="S49" s="293"/>
-      <c r="T49" s="86"/>
-      <c r="U49" s="294"/>
+      <c r="R49" s="294"/>
+      <c r="S49" s="294"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="295"/>
       <c r="V49" s="28"/>
-      <c r="W49" s="295"/>
+      <c r="W49" s="296"/>
       <c r="X49" s="23"/>
-      <c r="Y49" s="293"/>
-      <c r="Z49" s="296"/>
-      <c r="AA49" s="297"/>
-      <c r="AB49" s="298"/>
+      <c r="Y49" s="294"/>
+      <c r="Z49" s="297"/>
+      <c r="AA49" s="298"/>
+      <c r="AB49" s="299"/>
       <c r="AC49" s="23"/>
       <c r="AD49" s="23"/>
       <c r="AE49" s="23"/>
@@ -6261,33 +6273,33 @@
       <c r="AO49" s="53"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="293"/>
+      <c r="B50" s="294"/>
       <c r="C50" s="23"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="86"/>
+      <c r="D50" s="294"/>
+      <c r="E50" s="87"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
-      <c r="K50" s="293"/>
-      <c r="L50" s="293"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="294"/>
-      <c r="O50" s="294"/>
+      <c r="K50" s="294"/>
+      <c r="L50" s="294"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="295"/>
+      <c r="O50" s="295"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
-      <c r="R50" s="293"/>
-      <c r="S50" s="293"/>
-      <c r="T50" s="86"/>
-      <c r="U50" s="294"/>
+      <c r="R50" s="294"/>
+      <c r="S50" s="294"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="295"/>
       <c r="V50" s="28"/>
-      <c r="W50" s="295"/>
+      <c r="W50" s="296"/>
       <c r="X50" s="23"/>
-      <c r="Y50" s="293"/>
-      <c r="Z50" s="296"/>
-      <c r="AA50" s="297"/>
-      <c r="AB50" s="298"/>
+      <c r="Y50" s="294"/>
+      <c r="Z50" s="297"/>
+      <c r="AA50" s="298"/>
+      <c r="AB50" s="299"/>
       <c r="AC50" s="23"/>
       <c r="AD50" s="23"/>
       <c r="AE50" s="23"/>
@@ -6296,33 +6308,33 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="293"/>
+      <c r="B51" s="294"/>
       <c r="C51" s="23"/>
-      <c r="D51" s="293"/>
-      <c r="E51" s="86"/>
+      <c r="D51" s="294"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
-      <c r="K51" s="293"/>
-      <c r="L51" s="293"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="294"/>
-      <c r="O51" s="294"/>
+      <c r="K51" s="294"/>
+      <c r="L51" s="294"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="295"/>
+      <c r="O51" s="295"/>
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="293"/>
-      <c r="S51" s="293"/>
-      <c r="T51" s="86"/>
-      <c r="U51" s="294"/>
+      <c r="R51" s="294"/>
+      <c r="S51" s="294"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="295"/>
       <c r="V51" s="28"/>
-      <c r="W51" s="295"/>
+      <c r="W51" s="296"/>
       <c r="X51" s="23"/>
-      <c r="Y51" s="293"/>
-      <c r="Z51" s="296"/>
-      <c r="AA51" s="297"/>
-      <c r="AB51" s="298"/>
+      <c r="Y51" s="294"/>
+      <c r="Z51" s="297"/>
+      <c r="AA51" s="298"/>
+      <c r="AB51" s="299"/>
       <c r="AC51" s="23"/>
       <c r="AD51" s="23"/>
       <c r="AE51" s="23"/>
@@ -6331,33 +6343,33 @@
       <c r="AH51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="293"/>
+      <c r="B52" s="294"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="293"/>
-      <c r="E52" s="86"/>
+      <c r="D52" s="294"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
-      <c r="K52" s="293"/>
-      <c r="L52" s="293"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="294"/>
-      <c r="O52" s="294"/>
+      <c r="K52" s="294"/>
+      <c r="L52" s="294"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="295"/>
+      <c r="O52" s="295"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
-      <c r="R52" s="293"/>
-      <c r="S52" s="293"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="294"/>
+      <c r="R52" s="294"/>
+      <c r="S52" s="294"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="295"/>
       <c r="V52" s="28"/>
-      <c r="W52" s="295"/>
+      <c r="W52" s="296"/>
       <c r="X52" s="23"/>
-      <c r="Y52" s="293"/>
-      <c r="Z52" s="296"/>
-      <c r="AA52" s="297"/>
-      <c r="AB52" s="298"/>
+      <c r="Y52" s="294"/>
+      <c r="Z52" s="297"/>
+      <c r="AA52" s="298"/>
+      <c r="AB52" s="299"/>
       <c r="AC52" s="23"/>
       <c r="AD52" s="23"/>
       <c r="AE52" s="23"/>
@@ -6366,33 +6378,33 @@
       <c r="AH52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="293"/>
+      <c r="B53" s="294"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="293"/>
-      <c r="E53" s="86"/>
+      <c r="D53" s="294"/>
+      <c r="E53" s="87"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
-      <c r="K53" s="293"/>
-      <c r="L53" s="293"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="294"/>
-      <c r="O53" s="294"/>
+      <c r="K53" s="294"/>
+      <c r="L53" s="294"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="295"/>
+      <c r="O53" s="295"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
-      <c r="R53" s="293"/>
-      <c r="S53" s="293"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="294"/>
+      <c r="R53" s="294"/>
+      <c r="S53" s="294"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="295"/>
       <c r="V53" s="28"/>
-      <c r="W53" s="295"/>
+      <c r="W53" s="296"/>
       <c r="X53" s="23"/>
-      <c r="Y53" s="293"/>
-      <c r="Z53" s="296"/>
-      <c r="AA53" s="297"/>
-      <c r="AB53" s="298"/>
+      <c r="Y53" s="294"/>
+      <c r="Z53" s="297"/>
+      <c r="AA53" s="298"/>
+      <c r="AB53" s="299"/>
       <c r="AC53" s="23"/>
       <c r="AD53" s="23"/>
       <c r="AE53" s="23"/>
@@ -6401,33 +6413,33 @@
       <c r="AH53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="293"/>
+      <c r="B54" s="294"/>
       <c r="C54" s="23"/>
-      <c r="D54" s="293"/>
-      <c r="E54" s="86"/>
+      <c r="D54" s="294"/>
+      <c r="E54" s="87"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
-      <c r="K54" s="293"/>
-      <c r="L54" s="293"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="294"/>
-      <c r="O54" s="294"/>
+      <c r="K54" s="294"/>
+      <c r="L54" s="294"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="295"/>
+      <c r="O54" s="295"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
-      <c r="R54" s="293"/>
-      <c r="S54" s="293"/>
-      <c r="T54" s="86"/>
-      <c r="U54" s="294"/>
+      <c r="R54" s="294"/>
+      <c r="S54" s="294"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="295"/>
       <c r="V54" s="28"/>
-      <c r="W54" s="295"/>
+      <c r="W54" s="296"/>
       <c r="X54" s="23"/>
-      <c r="Y54" s="293"/>
-      <c r="Z54" s="296"/>
-      <c r="AA54" s="297"/>
-      <c r="AB54" s="298"/>
+      <c r="Y54" s="294"/>
+      <c r="Z54" s="297"/>
+      <c r="AA54" s="298"/>
+      <c r="AB54" s="299"/>
       <c r="AC54" s="23"/>
       <c r="AD54" s="23"/>
       <c r="AE54" s="23"/>
@@ -6436,33 +6448,33 @@
       <c r="AH54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="293"/>
+      <c r="B55" s="294"/>
       <c r="C55" s="23"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="86"/>
+      <c r="D55" s="294"/>
+      <c r="E55" s="87"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="293"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="294"/>
-      <c r="O55" s="294"/>
+      <c r="K55" s="294"/>
+      <c r="L55" s="294"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="295"/>
+      <c r="O55" s="295"/>
       <c r="P55" s="23"/>
       <c r="Q55" s="23"/>
-      <c r="R55" s="293"/>
-      <c r="S55" s="293"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="294"/>
+      <c r="R55" s="294"/>
+      <c r="S55" s="294"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="295"/>
       <c r="V55" s="28"/>
-      <c r="W55" s="295"/>
+      <c r="W55" s="296"/>
       <c r="X55" s="23"/>
-      <c r="Y55" s="293"/>
-      <c r="Z55" s="296"/>
-      <c r="AA55" s="297"/>
-      <c r="AB55" s="298"/>
+      <c r="Y55" s="294"/>
+      <c r="Z55" s="297"/>
+      <c r="AA55" s="298"/>
+      <c r="AB55" s="299"/>
       <c r="AC55" s="23"/>
       <c r="AD55" s="23"/>
       <c r="AE55" s="23"/>
@@ -6471,33 +6483,33 @@
       <c r="AH55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="293"/>
+      <c r="B56" s="294"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="293"/>
-      <c r="E56" s="86"/>
+      <c r="D56" s="294"/>
+      <c r="E56" s="87"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
-      <c r="K56" s="293"/>
-      <c r="L56" s="293"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="294"/>
-      <c r="O56" s="294"/>
+      <c r="K56" s="294"/>
+      <c r="L56" s="294"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="295"/>
+      <c r="O56" s="295"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
-      <c r="R56" s="293"/>
-      <c r="S56" s="293"/>
-      <c r="T56" s="86"/>
-      <c r="U56" s="294"/>
+      <c r="R56" s="294"/>
+      <c r="S56" s="294"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="295"/>
       <c r="V56" s="28"/>
-      <c r="W56" s="295"/>
+      <c r="W56" s="296"/>
       <c r="X56" s="23"/>
-      <c r="Y56" s="293"/>
-      <c r="Z56" s="296"/>
-      <c r="AA56" s="297"/>
-      <c r="AB56" s="298"/>
+      <c r="Y56" s="294"/>
+      <c r="Z56" s="297"/>
+      <c r="AA56" s="298"/>
+      <c r="AB56" s="299"/>
       <c r="AC56" s="23"/>
       <c r="AD56" s="23"/>
       <c r="AE56" s="23"/>
@@ -6506,33 +6518,33 @@
       <c r="AH56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="293"/>
+      <c r="B57" s="294"/>
       <c r="C57" s="23"/>
-      <c r="D57" s="293"/>
-      <c r="E57" s="86"/>
+      <c r="D57" s="294"/>
+      <c r="E57" s="87"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
-      <c r="K57" s="293"/>
-      <c r="L57" s="293"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="294"/>
-      <c r="O57" s="294"/>
+      <c r="K57" s="294"/>
+      <c r="L57" s="294"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="295"/>
+      <c r="O57" s="295"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="23"/>
-      <c r="R57" s="293"/>
-      <c r="S57" s="293"/>
-      <c r="T57" s="86"/>
-      <c r="U57" s="294"/>
+      <c r="R57" s="294"/>
+      <c r="S57" s="294"/>
+      <c r="T57" s="87"/>
+      <c r="U57" s="295"/>
       <c r="V57" s="28"/>
-      <c r="W57" s="295"/>
+      <c r="W57" s="296"/>
       <c r="X57" s="23"/>
-      <c r="Y57" s="293"/>
-      <c r="Z57" s="296"/>
-      <c r="AA57" s="297"/>
-      <c r="AB57" s="298"/>
+      <c r="Y57" s="294"/>
+      <c r="Z57" s="297"/>
+      <c r="AA57" s="298"/>
+      <c r="AB57" s="299"/>
       <c r="AC57" s="23"/>
       <c r="AD57" s="23"/>
       <c r="AE57" s="23"/>
@@ -6541,33 +6553,33 @@
       <c r="AH57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="293"/>
+      <c r="B58" s="294"/>
       <c r="C58" s="23"/>
-      <c r="D58" s="293"/>
-      <c r="E58" s="86"/>
+      <c r="D58" s="294"/>
+      <c r="E58" s="87"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
-      <c r="K58" s="293"/>
-      <c r="L58" s="293"/>
-      <c r="M58" s="86"/>
-      <c r="N58" s="294"/>
-      <c r="O58" s="294"/>
+      <c r="K58" s="294"/>
+      <c r="L58" s="294"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="295"/>
+      <c r="O58" s="295"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
-      <c r="R58" s="293"/>
-      <c r="S58" s="293"/>
-      <c r="T58" s="86"/>
-      <c r="U58" s="294"/>
+      <c r="R58" s="294"/>
+      <c r="S58" s="294"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="295"/>
       <c r="V58" s="28"/>
-      <c r="W58" s="295"/>
+      <c r="W58" s="296"/>
       <c r="X58" s="23"/>
-      <c r="Y58" s="293"/>
-      <c r="Z58" s="296"/>
-      <c r="AA58" s="297"/>
-      <c r="AB58" s="298"/>
+      <c r="Y58" s="294"/>
+      <c r="Z58" s="297"/>
+      <c r="AA58" s="298"/>
+      <c r="AB58" s="299"/>
       <c r="AC58" s="23"/>
       <c r="AD58" s="23"/>
       <c r="AE58" s="23"/>
@@ -6576,33 +6588,33 @@
       <c r="AH58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="293"/>
+      <c r="B59" s="294"/>
       <c r="C59" s="23"/>
-      <c r="D59" s="293"/>
-      <c r="E59" s="86"/>
+      <c r="D59" s="294"/>
+      <c r="E59" s="87"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
-      <c r="K59" s="293"/>
-      <c r="L59" s="293"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="294"/>
-      <c r="O59" s="294"/>
+      <c r="K59" s="294"/>
+      <c r="L59" s="294"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="295"/>
+      <c r="O59" s="295"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
-      <c r="R59" s="293"/>
-      <c r="S59" s="293"/>
-      <c r="T59" s="86"/>
-      <c r="U59" s="294"/>
+      <c r="R59" s="294"/>
+      <c r="S59" s="294"/>
+      <c r="T59" s="87"/>
+      <c r="U59" s="295"/>
       <c r="V59" s="28"/>
-      <c r="W59" s="295"/>
+      <c r="W59" s="296"/>
       <c r="X59" s="23"/>
-      <c r="Y59" s="293"/>
-      <c r="Z59" s="296"/>
-      <c r="AA59" s="297"/>
-      <c r="AB59" s="298"/>
+      <c r="Y59" s="294"/>
+      <c r="Z59" s="297"/>
+      <c r="AA59" s="298"/>
+      <c r="AB59" s="299"/>
       <c r="AC59" s="23"/>
       <c r="AD59" s="23"/>
       <c r="AE59" s="23"/>
@@ -6611,33 +6623,33 @@
       <c r="AH59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="293"/>
+      <c r="B60" s="294"/>
       <c r="C60" s="23"/>
-      <c r="D60" s="293"/>
-      <c r="E60" s="86"/>
+      <c r="D60" s="294"/>
+      <c r="E60" s="87"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
-      <c r="K60" s="293"/>
-      <c r="L60" s="293"/>
-      <c r="M60" s="86"/>
-      <c r="N60" s="294"/>
-      <c r="O60" s="294"/>
+      <c r="K60" s="294"/>
+      <c r="L60" s="294"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="295"/>
+      <c r="O60" s="295"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
-      <c r="R60" s="293"/>
-      <c r="S60" s="293"/>
-      <c r="T60" s="86"/>
-      <c r="U60" s="294"/>
+      <c r="R60" s="294"/>
+      <c r="S60" s="294"/>
+      <c r="T60" s="87"/>
+      <c r="U60" s="295"/>
       <c r="V60" s="28"/>
-      <c r="W60" s="295"/>
+      <c r="W60" s="296"/>
       <c r="X60" s="23"/>
-      <c r="Y60" s="293"/>
-      <c r="Z60" s="296"/>
-      <c r="AA60" s="297"/>
-      <c r="AB60" s="298"/>
+      <c r="Y60" s="294"/>
+      <c r="Z60" s="297"/>
+      <c r="AA60" s="298"/>
+      <c r="AB60" s="299"/>
       <c r="AC60" s="23"/>
       <c r="AD60" s="23"/>
       <c r="AE60" s="23"/>
@@ -6646,33 +6658,33 @@
       <c r="AH60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="293"/>
+      <c r="B61" s="294"/>
       <c r="C61" s="23"/>
-      <c r="D61" s="293"/>
-      <c r="E61" s="86"/>
+      <c r="D61" s="294"/>
+      <c r="E61" s="87"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
-      <c r="K61" s="293"/>
-      <c r="L61" s="293"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="294"/>
-      <c r="O61" s="294"/>
+      <c r="K61" s="294"/>
+      <c r="L61" s="294"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="295"/>
+      <c r="O61" s="295"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
-      <c r="R61" s="293"/>
-      <c r="S61" s="293"/>
-      <c r="T61" s="86"/>
-      <c r="U61" s="294"/>
+      <c r="R61" s="294"/>
+      <c r="S61" s="294"/>
+      <c r="T61" s="87"/>
+      <c r="U61" s="295"/>
       <c r="V61" s="28"/>
-      <c r="W61" s="295"/>
+      <c r="W61" s="296"/>
       <c r="X61" s="23"/>
-      <c r="Y61" s="293"/>
-      <c r="Z61" s="296"/>
-      <c r="AA61" s="297"/>
-      <c r="AB61" s="298"/>
+      <c r="Y61" s="294"/>
+      <c r="Z61" s="297"/>
+      <c r="AA61" s="298"/>
+      <c r="AB61" s="299"/>
       <c r="AC61" s="23"/>
       <c r="AD61" s="23"/>
       <c r="AE61" s="23"/>
@@ -6681,33 +6693,33 @@
       <c r="AH61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="293"/>
+      <c r="B62" s="294"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="293"/>
-      <c r="E62" s="86"/>
+      <c r="D62" s="294"/>
+      <c r="E62" s="87"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
-      <c r="K62" s="293"/>
-      <c r="L62" s="293"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="294"/>
-      <c r="O62" s="294"/>
+      <c r="K62" s="294"/>
+      <c r="L62" s="294"/>
+      <c r="M62" s="87"/>
+      <c r="N62" s="295"/>
+      <c r="O62" s="295"/>
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
-      <c r="R62" s="293"/>
-      <c r="S62" s="293"/>
-      <c r="T62" s="86"/>
-      <c r="U62" s="294"/>
+      <c r="R62" s="294"/>
+      <c r="S62" s="294"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="295"/>
       <c r="V62" s="28"/>
-      <c r="W62" s="295"/>
+      <c r="W62" s="296"/>
       <c r="X62" s="23"/>
-      <c r="Y62" s="293"/>
-      <c r="Z62" s="296"/>
-      <c r="AA62" s="297"/>
-      <c r="AB62" s="298"/>
+      <c r="Y62" s="294"/>
+      <c r="Z62" s="297"/>
+      <c r="AA62" s="298"/>
+      <c r="AB62" s="299"/>
       <c r="AC62" s="23"/>
       <c r="AD62" s="23"/>
       <c r="AE62" s="23"/>
@@ -6716,33 +6728,33 @@
       <c r="AH62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="293"/>
+      <c r="B63" s="294"/>
       <c r="C63" s="23"/>
-      <c r="D63" s="293"/>
-      <c r="E63" s="86"/>
+      <c r="D63" s="294"/>
+      <c r="E63" s="87"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
-      <c r="K63" s="293"/>
-      <c r="L63" s="293"/>
-      <c r="M63" s="86"/>
-      <c r="N63" s="294"/>
-      <c r="O63" s="294"/>
+      <c r="K63" s="294"/>
+      <c r="L63" s="294"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="295"/>
+      <c r="O63" s="295"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
-      <c r="R63" s="293"/>
-      <c r="S63" s="293"/>
-      <c r="T63" s="86"/>
-      <c r="U63" s="294"/>
+      <c r="R63" s="294"/>
+      <c r="S63" s="294"/>
+      <c r="T63" s="87"/>
+      <c r="U63" s="295"/>
       <c r="V63" s="28"/>
-      <c r="W63" s="295"/>
+      <c r="W63" s="296"/>
       <c r="X63" s="23"/>
-      <c r="Y63" s="293"/>
-      <c r="Z63" s="296"/>
-      <c r="AA63" s="297"/>
-      <c r="AB63" s="298"/>
+      <c r="Y63" s="294"/>
+      <c r="Z63" s="297"/>
+      <c r="AA63" s="298"/>
+      <c r="AB63" s="299"/>
       <c r="AC63" s="23"/>
       <c r="AD63" s="23"/>
       <c r="AE63" s="23"/>
@@ -6813,7 +6825,7 @@
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.63"/>
@@ -7078,49 +7090,49 @@
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="299" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
+      <c r="D12" s="300" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="300"/>
+      <c r="F12" s="300"/>
       <c r="G12" s="45"/>
-      <c r="H12" s="299" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
-      <c r="N12" s="299"/>
+      <c r="H12" s="300" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="300"/>
+      <c r="J12" s="300"/>
+      <c r="K12" s="300"/>
+      <c r="L12" s="300"/>
+      <c r="M12" s="300"/>
+      <c r="N12" s="300"/>
       <c r="O12" s="45"/>
-      <c r="P12" s="299" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="299"/>
-      <c r="R12" s="299"/>
-      <c r="S12" s="299"/>
-      <c r="T12" s="299"/>
-      <c r="U12" s="299"/>
-      <c r="V12" s="300"/>
+      <c r="P12" s="300" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="300"/>
+      <c r="R12" s="300"/>
+      <c r="S12" s="300"/>
+      <c r="T12" s="300"/>
+      <c r="U12" s="300"/>
+      <c r="V12" s="301"/>
       <c r="W12" s="45"/>
       <c r="X12" s="45"/>
-      <c r="Y12" s="299" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="299"/>
-      <c r="AA12" s="299"/>
+      <c r="Y12" s="300" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" s="300"/>
+      <c r="AA12" s="300"/>
       <c r="AB12" s="45"/>
-      <c r="AC12" s="299" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD12" s="299"/>
-      <c r="AE12" s="299"/>
-      <c r="AF12" s="299"/>
-      <c r="AG12" s="299"/>
-      <c r="AH12" s="299"/>
+      <c r="AC12" s="300" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD12" s="300"/>
+      <c r="AE12" s="300"/>
+      <c r="AF12" s="300"/>
+      <c r="AG12" s="300"/>
+      <c r="AH12" s="300"/>
       <c r="AI12" s="25"/>
-      <c r="AJ12" s="86"/>
+      <c r="AJ12" s="87"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
       <c r="AM12" s="23"/>
@@ -7132,63 +7144,63 @@
     <row r="13" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="23"/>
       <c r="B13" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="301" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
+      <c r="D13" s="302" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="302" t="n">
+      <c r="H13" s="303" t="n">
         <f aca="false">+H14*H16</f>
         <v>6</v>
       </c>
-      <c r="I13" s="302"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="302"/>
-      <c r="L13" s="302"/>
-      <c r="M13" s="302"/>
-      <c r="N13" s="302"/>
+      <c r="I13" s="303"/>
+      <c r="J13" s="303"/>
+      <c r="K13" s="303"/>
+      <c r="L13" s="303"/>
+      <c r="M13" s="303"/>
+      <c r="N13" s="303"/>
       <c r="O13" s="45"/>
-      <c r="P13" s="303" t="n">
+      <c r="P13" s="304" t="n">
         <f aca="false">+V13</f>
         <v>300000000</v>
       </c>
-      <c r="Q13" s="303"/>
-      <c r="R13" s="303"/>
-      <c r="S13" s="303"/>
-      <c r="T13" s="303"/>
-      <c r="U13" s="303"/>
-      <c r="V13" s="304" t="n">
+      <c r="Q13" s="304"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="304"/>
+      <c r="T13" s="304"/>
+      <c r="U13" s="304"/>
+      <c r="V13" s="305" t="n">
         <v>300000000</v>
       </c>
       <c r="W13" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y13" s="301" t="n">
+      <c r="Y13" s="302" t="n">
         <v>6</v>
       </c>
-      <c r="Z13" s="301"/>
-      <c r="AA13" s="301"/>
+      <c r="Z13" s="302"/>
+      <c r="AA13" s="302"/>
       <c r="AB13" s="45"/>
-      <c r="AC13" s="305" t="n">
+      <c r="AC13" s="306" t="n">
         <f aca="false">+2.506627216</f>
         <v>2.506627216</v>
       </c>
-      <c r="AD13" s="306"/>
-      <c r="AE13" s="307"/>
-      <c r="AF13" s="308" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG13" s="308"/>
-      <c r="AH13" s="308"/>
+      <c r="AD13" s="307"/>
+      <c r="AE13" s="308"/>
+      <c r="AF13" s="309" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG13" s="309"/>
+      <c r="AH13" s="309"/>
       <c r="AI13" s="25"/>
-      <c r="AJ13" s="86"/>
+      <c r="AJ13" s="87"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="26"/>
@@ -7198,62 +7210,62 @@
     <row r="14" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="23"/>
       <c r="B14" s="43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="309" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
+      <c r="D14" s="310" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="310"/>
+      <c r="F14" s="310"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="309" t="n">
+      <c r="H14" s="310" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
-      <c r="M14" s="309"/>
-      <c r="N14" s="309"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="310"/>
+      <c r="K14" s="310"/>
+      <c r="L14" s="310"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="310"/>
       <c r="O14" s="45"/>
-      <c r="P14" s="310" t="n">
+      <c r="P14" s="311" t="n">
         <f aca="false">+V14</f>
         <v>540540540540541</v>
       </c>
-      <c r="Q14" s="310"/>
-      <c r="R14" s="310"/>
-      <c r="S14" s="310"/>
-      <c r="T14" s="310"/>
-      <c r="U14" s="310"/>
-      <c r="V14" s="311" t="n">
+      <c r="Q14" s="311"/>
+      <c r="R14" s="311"/>
+      <c r="S14" s="311"/>
+      <c r="T14" s="311"/>
+      <c r="U14" s="311"/>
+      <c r="V14" s="312" t="n">
         <f aca="false">V13/V16</f>
         <v>540540540540541</v>
       </c>
       <c r="W14" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X14" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y14" s="309" t="n">
+        <v>69</v>
+      </c>
+      <c r="Y14" s="310" t="n">
         <v>2</v>
       </c>
-      <c r="Z14" s="309"/>
-      <c r="AA14" s="309"/>
+      <c r="Z14" s="310"/>
+      <c r="AA14" s="310"/>
       <c r="AB14" s="45"/>
-      <c r="AC14" s="312" t="n">
+      <c r="AC14" s="313" t="n">
         <v>2</v>
       </c>
       <c r="AD14" s="28"/>
-      <c r="AE14" s="313"/>
-      <c r="AF14" s="314" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" s="314"/>
-      <c r="AH14" s="314"/>
+      <c r="AE14" s="314"/>
+      <c r="AF14" s="315" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG14" s="315"/>
+      <c r="AH14" s="315"/>
       <c r="AI14" s="25"/>
-      <c r="AJ14" s="86"/>
+      <c r="AJ14" s="87"/>
       <c r="AM14" s="25"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="26"/>
@@ -7263,63 +7275,63 @@
     <row r="15" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23"/>
       <c r="B15" s="43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="309" t="s">
+      <c r="D15" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="309"/>
-      <c r="F15" s="309"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
       <c r="G15" s="45"/>
-      <c r="H15" s="315" t="n">
+      <c r="H15" s="316" t="n">
         <f aca="false">+H13*H16</f>
         <v>18</v>
       </c>
-      <c r="I15" s="315"/>
-      <c r="J15" s="315"/>
-      <c r="K15" s="315"/>
-      <c r="L15" s="315"/>
-      <c r="M15" s="315"/>
-      <c r="N15" s="315"/>
+      <c r="I15" s="316"/>
+      <c r="J15" s="316"/>
+      <c r="K15" s="316"/>
+      <c r="L15" s="316"/>
+      <c r="M15" s="316"/>
+      <c r="N15" s="316"/>
       <c r="O15" s="45"/>
-      <c r="P15" s="310" t="n">
+      <c r="P15" s="311" t="n">
         <f aca="false">+V15</f>
         <v>166.5</v>
       </c>
-      <c r="Q15" s="310"/>
-      <c r="R15" s="310"/>
-      <c r="S15" s="310"/>
-      <c r="T15" s="310"/>
-      <c r="U15" s="310"/>
-      <c r="V15" s="310" t="n">
+      <c r="Q15" s="311"/>
+      <c r="R15" s="311"/>
+      <c r="S15" s="311"/>
+      <c r="T15" s="311"/>
+      <c r="U15" s="311"/>
+      <c r="V15" s="311" t="n">
         <f aca="false">V13*V16</f>
         <v>166.5</v>
       </c>
       <c r="W15" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="309" t="n">
+      <c r="Y15" s="310" t="n">
         <v>18</v>
       </c>
-      <c r="Z15" s="309"/>
-      <c r="AA15" s="309"/>
+      <c r="Z15" s="310"/>
+      <c r="AA15" s="310"/>
       <c r="AB15" s="45"/>
-      <c r="AC15" s="316" t="n">
+      <c r="AC15" s="317" t="n">
         <v>3.14159265359</v>
       </c>
       <c r="AD15" s="28"/>
-      <c r="AE15" s="313"/>
-      <c r="AF15" s="317" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG15" s="317"/>
-      <c r="AH15" s="317"/>
-      <c r="AI15" s="318"/>
-      <c r="AJ15" s="86"/>
+      <c r="AE15" s="314"/>
+      <c r="AF15" s="318" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG15" s="318"/>
+      <c r="AH15" s="318"/>
+      <c r="AI15" s="319"/>
+      <c r="AJ15" s="87"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="26"/>
       <c r="AO15" s="26"/>
@@ -7329,62 +7341,62 @@
     <row r="16" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23"/>
       <c r="B16" s="43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="319" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="319"/>
-      <c r="F16" s="319"/>
+      <c r="D16" s="320" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="320"/>
+      <c r="F16" s="320"/>
       <c r="G16" s="45"/>
-      <c r="H16" s="319" t="n">
+      <c r="H16" s="320" t="n">
         <v>3</v>
       </c>
-      <c r="I16" s="319"/>
-      <c r="J16" s="319"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="319"/>
-      <c r="M16" s="319"/>
-      <c r="N16" s="319"/>
+      <c r="I16" s="320"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="320"/>
+      <c r="L16" s="320"/>
+      <c r="M16" s="320"/>
+      <c r="N16" s="320"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="320" t="n">
+      <c r="P16" s="321" t="n">
         <f aca="false">+V16</f>
         <v>5.55E-007</v>
       </c>
-      <c r="Q16" s="320"/>
-      <c r="R16" s="320"/>
-      <c r="S16" s="320"/>
-      <c r="T16" s="320"/>
-      <c r="U16" s="320"/>
-      <c r="V16" s="304" t="n">
+      <c r="Q16" s="321"/>
+      <c r="R16" s="321"/>
+      <c r="S16" s="321"/>
+      <c r="T16" s="321"/>
+      <c r="U16" s="321"/>
+      <c r="V16" s="305" t="n">
         <v>5.55E-007</v>
       </c>
       <c r="W16" s="37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X16" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y16" s="319" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="320" t="n">
         <v>3</v>
       </c>
-      <c r="Z16" s="319"/>
-      <c r="AA16" s="319"/>
+      <c r="Z16" s="320"/>
+      <c r="AA16" s="320"/>
       <c r="AB16" s="45"/>
-      <c r="AC16" s="321" t="n">
+      <c r="AC16" s="322" t="n">
         <f aca="false">AC13/+AC14</f>
         <v>1.253313608</v>
       </c>
-      <c r="AD16" s="322"/>
-      <c r="AE16" s="323"/>
-      <c r="AF16" s="324" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG16" s="324"/>
-      <c r="AH16" s="324"/>
+      <c r="AD16" s="323"/>
+      <c r="AE16" s="324"/>
+      <c r="AF16" s="325" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG16" s="325"/>
+      <c r="AH16" s="325"/>
       <c r="AI16" s="25"/>
-      <c r="AJ16" s="86"/>
+      <c r="AJ16" s="87"/>
       <c r="AM16" s="25"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="26"/>
@@ -7401,18 +7413,18 @@
       <c r="G17" s="45"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="L17" s="44"/>
-      <c r="M17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="44"/>
       <c r="O17" s="45"/>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="82"/>
+      <c r="U17" s="83"/>
       <c r="V17" s="44"/>
       <c r="W17" s="45"/>
       <c r="X17" s="45"/>
@@ -7420,14 +7432,14 @@
       <c r="Z17" s="44"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="45"/>
-      <c r="AC17" s="325"/>
-      <c r="AD17" s="103"/>
+      <c r="AC17" s="326"/>
+      <c r="AD17" s="104"/>
       <c r="AE17" s="44"/>
-      <c r="AF17" s="326"/>
-      <c r="AG17" s="326"/>
-      <c r="AH17" s="326"/>
+      <c r="AF17" s="327"/>
+      <c r="AG17" s="327"/>
+      <c r="AH17" s="327"/>
       <c r="AI17" s="25"/>
-      <c r="AJ17" s="86"/>
+      <c r="AJ17" s="87"/>
       <c r="AK17" s="26"/>
       <c r="AL17" s="26"/>
       <c r="AM17" s="25"/>
@@ -7440,93 +7452,93 @@
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="94" t="n">
+      <c r="E18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="95" t="n">
         <f aca="false">SQRT(K18*M18)</f>
         <v>6</v>
       </c>
-      <c r="I18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="327" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="327" t="n">
+      <c r="I18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="328" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="328" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L18" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="328" t="n">
+      <c r="L18" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="329" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N18" s="329" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="108"/>
-      <c r="P18" s="330" t="n">
+      <c r="N18" s="330" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="109"/>
+      <c r="P18" s="331" t="n">
         <f aca="false">SQRT(S18*U18)</f>
         <v>300000000</v>
       </c>
-      <c r="Q18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="327" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="327" t="n">
+      <c r="Q18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="328" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" s="328" t="n">
         <f aca="false">+$P$15</f>
         <v>166.5</v>
       </c>
-      <c r="T18" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="328" t="n">
+      <c r="T18" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="329" t="n">
         <f aca="false">+$P$14</f>
         <v>540540540540541</v>
       </c>
-      <c r="V18" s="329"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="331" t="n">
+      <c r="V18" s="330"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="332" t="n">
         <v>6</v>
       </c>
-      <c r="Z18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="332" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="333" t="n">
+      <c r="Z18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="333" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="334" t="n">
         <f aca="false">SQRT(AF18*AH18)</f>
         <v>2.50662827463108</v>
       </c>
-      <c r="AD18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF18" s="334" t="n">
+      <c r="AD18" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF18" s="335" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG18" s="335" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH18" s="336" t="n">
+      <c r="AG18" s="336" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="337" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -7535,7 +7547,7 @@
       <c r="AK18" s="23"/>
       <c r="AL18" s="23"/>
       <c r="AM18" s="23"/>
-      <c r="AN18" s="109"/>
+      <c r="AN18" s="110"/>
       <c r="AO18" s="23"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="23"/>
@@ -7544,87 +7556,87 @@
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="113" t="n">
+      <c r="E19" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="93"/>
+      <c r="H19" s="114" t="n">
         <f aca="false">+K19/M19</f>
         <v>6</v>
       </c>
-      <c r="I19" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115" t="n">
+      <c r="I19" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L19" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="337" t="n">
+      <c r="L19" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="338" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="N19" s="329" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="108"/>
-      <c r="P19" s="338" t="n">
+      <c r="N19" s="330" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="109"/>
+      <c r="P19" s="339" t="n">
         <f aca="false">+S19/U19</f>
         <v>300000000</v>
       </c>
-      <c r="Q19" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="115"/>
-      <c r="S19" s="115" t="n">
+      <c r="Q19" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116" t="n">
         <f aca="false">+$P$15</f>
         <v>166.5</v>
       </c>
-      <c r="T19" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="337" t="n">
+      <c r="T19" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="338" t="n">
         <f aca="false">+$P$16</f>
         <v>5.55E-007</v>
       </c>
-      <c r="V19" s="329"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="339" t="n">
+      <c r="V19" s="330"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="340" t="n">
         <v>6</v>
       </c>
-      <c r="Z19" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="340" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB19" s="108"/>
-      <c r="AC19" s="341" t="n">
+      <c r="Z19" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="341" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="342" t="n">
         <f aca="false">+AF19/AH19</f>
         <v>2.50662933326261</v>
       </c>
-      <c r="AD19" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="342" t="n">
+      <c r="AD19" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="343" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG19" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH19" s="343" t="n">
+      <c r="AG19" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH19" s="344" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -7635,87 +7647,87 @@
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="129" t="n">
+      <c r="E20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="93"/>
+      <c r="H20" s="130" t="n">
         <f aca="false">+M20*K20</f>
         <v>6</v>
       </c>
-      <c r="I20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130" t="n">
+      <c r="I20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="L20" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="344" t="n">
+      <c r="L20" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="345" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N20" s="329" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="108"/>
-      <c r="P20" s="345" t="n">
+      <c r="N20" s="330" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="109"/>
+      <c r="P20" s="346" t="n">
         <f aca="false">+U20*S20</f>
         <v>300000000</v>
       </c>
-      <c r="Q20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="130"/>
-      <c r="S20" s="346" t="n">
+      <c r="Q20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="131"/>
+      <c r="S20" s="347" t="n">
         <f aca="false">+$P$16</f>
         <v>5.55E-007</v>
       </c>
-      <c r="T20" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" s="344" t="n">
+      <c r="T20" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="345" t="n">
         <f aca="false">+$P$14</f>
         <v>540540540540541</v>
       </c>
-      <c r="V20" s="329"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="347" t="n">
+      <c r="V20" s="330"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="348" t="n">
         <v>6</v>
       </c>
-      <c r="Z20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="348" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB20" s="108"/>
-      <c r="AC20" s="349" t="n">
+      <c r="Z20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="349" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="350" t="n">
         <f aca="false">+AH20*AF20</f>
         <v>2.506627216</v>
       </c>
-      <c r="AD20" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="350" t="n">
+      <c r="AD20" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="351" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
-      <c r="AG20" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH20" s="351" t="n">
+      <c r="AG20" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" s="352" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -7725,87 +7737,87 @@
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="148" t="n">
+      <c r="E21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="93"/>
+      <c r="H21" s="149" t="n">
         <f aca="false">+K21/M21</f>
         <v>2</v>
       </c>
-      <c r="I21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="149"/>
-      <c r="K21" s="352" t="n">
+      <c r="I21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="150"/>
+      <c r="K21" s="353" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="L21" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="353" t="n">
+      <c r="L21" s="156" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="354" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="N21" s="354" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="108"/>
-      <c r="P21" s="355" t="n">
+      <c r="N21" s="355" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="109"/>
+      <c r="P21" s="356" t="n">
         <f aca="false">+S21/U21</f>
         <v>540540540540541</v>
       </c>
-      <c r="Q21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="149"/>
-      <c r="S21" s="352" t="n">
+      <c r="Q21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="150"/>
+      <c r="S21" s="353" t="n">
         <f aca="false">+$P$13</f>
         <v>300000000</v>
       </c>
-      <c r="T21" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="353" t="n">
+      <c r="T21" s="156" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="354" t="n">
         <f aca="false">+$P$16</f>
         <v>5.55E-007</v>
       </c>
-      <c r="V21" s="354"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="356" t="n">
+      <c r="V21" s="355"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="357" t="n">
         <v>2</v>
       </c>
-      <c r="Z21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="357" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="358" t="n">
+      <c r="Z21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="358" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="359" t="n">
         <f aca="false">+AF21/AH21</f>
         <v>2</v>
       </c>
-      <c r="AD21" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="146"/>
-      <c r="AF21" s="359" t="n">
+      <c r="AD21" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="147"/>
+      <c r="AF21" s="360" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
-      <c r="AG21" s="146" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH21" s="360" t="n">
+      <c r="AG21" s="147" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH21" s="361" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -7816,87 +7828,87 @@
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="165" t="n">
+      <c r="E22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="165" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="166" t="n">
         <f aca="false">+K22/M22</f>
         <v>2</v>
       </c>
-      <c r="I22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166" t="n">
+      <c r="I22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167" t="n">
         <f aca="false">+$H$13^2</f>
         <v>36</v>
       </c>
-      <c r="L22" s="172" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="361" t="n">
+      <c r="L22" s="173" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="362" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="N22" s="329" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="108"/>
-      <c r="P22" s="362" t="n">
+      <c r="N22" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="109"/>
+      <c r="P22" s="363" t="n">
         <f aca="false">+S22/U22</f>
         <v>540540540540541</v>
       </c>
-      <c r="Q22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166" t="n">
+      <c r="Q22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="167"/>
+      <c r="S22" s="167" t="n">
         <f aca="false">+$P$13^2</f>
         <v>90000000000000000</v>
       </c>
-      <c r="T22" s="172" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="361" t="n">
+      <c r="T22" s="173" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="362" t="n">
         <f aca="false">+$P$15</f>
         <v>166.5</v>
       </c>
-      <c r="V22" s="329"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="363" t="n">
+      <c r="V22" s="330"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="364" t="n">
         <v>2</v>
       </c>
-      <c r="Z22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="364" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="358" t="n">
+      <c r="Z22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="365" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="359" t="n">
         <f aca="false">+AF22/AH22</f>
         <v>1.99999831066956</v>
       </c>
-      <c r="AD22" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="163"/>
-      <c r="AF22" s="365" t="n">
+      <c r="AD22" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="366" t="n">
         <f aca="false">+$AC$13^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="AG22" s="163" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH22" s="366" t="n">
+      <c r="AG22" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH22" s="367" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
@@ -7907,86 +7919,86 @@
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="180" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="181" t="n">
+      <c r="E23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="93"/>
+      <c r="H23" s="182" t="n">
         <f aca="false">+K23/M23</f>
         <v>2</v>
       </c>
-      <c r="I23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="182"/>
-      <c r="K23" s="182" t="n">
+      <c r="I23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L23" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="367" t="n">
+      <c r="L23" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="368" t="n">
         <f aca="false">+$H$16^2</f>
         <v>9</v>
       </c>
-      <c r="N23" s="329" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="108"/>
-      <c r="P23" s="368" t="n">
+      <c r="N23" s="330" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="109"/>
+      <c r="P23" s="369" t="n">
         <f aca="false">+S23/U23</f>
         <v>540540540540541</v>
       </c>
-      <c r="Q23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="182"/>
-      <c r="S23" s="182" t="n">
+      <c r="Q23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183" t="n">
         <f aca="false">+$P$15</f>
         <v>166.5</v>
       </c>
-      <c r="T23" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="U23" s="367" t="n">
+      <c r="T23" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="368" t="n">
         <f aca="false">+$P$16^2</f>
         <v>3.08025E-013</v>
       </c>
-      <c r="V23" s="329"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="369" t="n">
+      <c r="V23" s="330"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="370" t="n">
         <v>2</v>
       </c>
-      <c r="Z23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="370" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="358" t="n">
+      <c r="Z23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="371" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="359" t="n">
         <f aca="false">+AF23/AH23</f>
         <v>1.99898777370952</v>
       </c>
-      <c r="AD23" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="179"/>
-      <c r="AF23" s="371" t="n">
+      <c r="AD23" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="180"/>
+      <c r="AF23" s="372" t="n">
         <v>3.14</v>
       </c>
-      <c r="AG23" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH23" s="372" t="n">
+      <c r="AG23" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH23" s="373" t="n">
         <f aca="false">+$AC$16^2</f>
         <v>1.57079499999798</v>
       </c>
@@ -7997,87 +8009,87 @@
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="193" t="s">
+      <c r="D24" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="195" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="196" t="n">
+      <c r="E24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="93"/>
+      <c r="H24" s="197" t="n">
         <f aca="false">+K24/M24</f>
         <v>18</v>
       </c>
-      <c r="I24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="197"/>
-      <c r="K24" s="197" t="n">
+      <c r="I24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198" t="n">
         <f aca="false">+$H$13^2</f>
         <v>36</v>
       </c>
-      <c r="L24" s="194" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="373" t="n">
+      <c r="L24" s="195" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="374" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N24" s="329" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="108"/>
-      <c r="P24" s="374" t="n">
+      <c r="N24" s="330" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" s="109"/>
+      <c r="P24" s="375" t="n">
         <f aca="false">+S24/U24</f>
         <v>166.5</v>
       </c>
-      <c r="Q24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197" t="n">
+      <c r="Q24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="198"/>
+      <c r="S24" s="198" t="n">
         <f aca="false">+$P$13^2</f>
         <v>90000000000000000</v>
       </c>
-      <c r="T24" s="194" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="373" t="n">
+      <c r="T24" s="195" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="374" t="n">
         <f aca="false">+$P$14</f>
         <v>540540540540541</v>
       </c>
-      <c r="V24" s="329"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="375" t="n">
+      <c r="V24" s="330"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="376" t="n">
         <v>18</v>
       </c>
-      <c r="Z24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="376" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="377" t="n">
+      <c r="Z24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="377" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="378" t="n">
         <f aca="false">+AF24/AH24</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="AD24" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="194"/>
-      <c r="AF24" s="378" t="n">
+      <c r="AD24" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="379" t="n">
         <f aca="false">+$AC$13^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="AG24" s="218" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH24" s="379" t="n">
+      <c r="AG24" s="219" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH24" s="380" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -8088,87 +8100,87 @@
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="208" t="s">
+      <c r="D25" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="210" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="211" t="n">
+      <c r="E25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="93"/>
+      <c r="H25" s="212" t="n">
         <f aca="false">+M25*K25</f>
         <v>18</v>
       </c>
-      <c r="I25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="212"/>
-      <c r="K25" s="212" t="n">
+      <c r="I25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213" t="n">
         <f aca="false">+$H$16^2</f>
         <v>9</v>
       </c>
-      <c r="L25" s="218" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" s="380" t="n">
+      <c r="L25" s="219" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="381" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N25" s="329" t="s">
-        <v>82</v>
-      </c>
-      <c r="O25" s="108"/>
-      <c r="P25" s="381" t="n">
+      <c r="N25" s="330" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" s="109"/>
+      <c r="P25" s="382" t="n">
         <f aca="false">+U25*S25</f>
         <v>166.5</v>
       </c>
-      <c r="Q25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212" t="n">
+      <c r="Q25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="213"/>
+      <c r="S25" s="213" t="n">
         <f aca="false">+$P$16^2</f>
         <v>3.08025E-013</v>
       </c>
-      <c r="T25" s="218" t="s">
-        <v>37</v>
-      </c>
-      <c r="U25" s="380" t="n">
+      <c r="T25" s="219" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="381" t="n">
         <f aca="false">+$P$14</f>
         <v>540540540540541</v>
       </c>
-      <c r="V25" s="329"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="382" t="n">
+      <c r="V25" s="330"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="383" t="n">
         <v>18</v>
       </c>
-      <c r="Z25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="383" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB25" s="108"/>
-      <c r="AC25" s="384" t="n">
+      <c r="Z25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="384" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="385" t="n">
         <f aca="false">+AH25*AF25</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="AD25" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="209"/>
-      <c r="AF25" s="379" t="n">
+      <c r="AD25" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="210"/>
+      <c r="AF25" s="380" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
-      <c r="AG25" s="209" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH25" s="385" t="n">
+      <c r="AG25" s="210" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH25" s="386" t="n">
         <f aca="false">+$AC$16^2</f>
         <v>1.57079499999798</v>
       </c>
@@ -8178,87 +8190,87 @@
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="225" t="s">
+      <c r="D26" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="227" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="228" t="n">
+      <c r="E26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="228" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="229" t="n">
         <f aca="false">+K26*M26</f>
         <v>18</v>
       </c>
-      <c r="I26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229" t="n">
+      <c r="I26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="L26" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="386" t="n">
+      <c r="L26" s="227" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="387" t="n">
         <f aca="false">+$H$16</f>
         <v>3</v>
       </c>
-      <c r="N26" s="329" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26" s="108"/>
-      <c r="P26" s="387" t="n">
+      <c r="N26" s="330" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" s="109"/>
+      <c r="P26" s="388" t="n">
         <f aca="false">+S26*U26</f>
         <v>166.5</v>
       </c>
-      <c r="Q26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229" t="n">
+      <c r="Q26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="230"/>
+      <c r="S26" s="230" t="n">
         <f aca="false">+$P$13</f>
         <v>300000000</v>
       </c>
-      <c r="T26" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="U26" s="386" t="n">
+      <c r="T26" s="227" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="387" t="n">
         <f aca="false">+$P$16</f>
         <v>5.55E-007</v>
       </c>
-      <c r="V26" s="329"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="388" t="n">
+      <c r="V26" s="330"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="389" t="n">
         <v>18</v>
       </c>
-      <c r="Z26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="389" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB26" s="108"/>
-      <c r="AC26" s="390" t="n">
+      <c r="Z26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="390" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="391" t="n">
         <f aca="false">+AF26*AH26</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="AD26" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="226"/>
-      <c r="AF26" s="391" t="n">
+      <c r="AD26" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="227"/>
+      <c r="AF26" s="392" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
-      <c r="AG26" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH26" s="392" t="n">
+      <c r="AG26" s="227" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH26" s="393" t="n">
         <f aca="false">+$AC$16</f>
         <v>1.253313608</v>
       </c>
@@ -8269,87 +8281,87 @@
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="240" t="s">
+      <c r="D27" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="243" t="n">
+      <c r="E27" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="243" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="93"/>
+      <c r="H27" s="244" t="n">
         <f aca="false">+K27/M27</f>
         <v>3</v>
       </c>
-      <c r="I27" s="244" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="245"/>
-      <c r="K27" s="393" t="n">
+      <c r="I27" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="246"/>
+      <c r="K27" s="394" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="L27" s="251" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="394" t="n">
+      <c r="L27" s="252" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="395" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N27" s="354" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="92"/>
-      <c r="P27" s="395" t="n">
+      <c r="N27" s="355" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="93"/>
+      <c r="P27" s="396" t="n">
         <f aca="false">+S27/U27</f>
         <v>5.55E-007</v>
       </c>
-      <c r="Q27" s="244" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="245"/>
-      <c r="S27" s="393" t="n">
+      <c r="Q27" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="246"/>
+      <c r="S27" s="394" t="n">
         <f aca="false">+$P$13</f>
         <v>300000000</v>
       </c>
-      <c r="T27" s="251" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="394" t="n">
+      <c r="T27" s="252" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" s="395" t="n">
         <f aca="false">+$P$14</f>
         <v>540540540540541</v>
       </c>
-      <c r="V27" s="354"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="396" t="n">
+      <c r="V27" s="355"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="397" t="n">
         <v>3</v>
       </c>
-      <c r="Z27" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="397" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="398" t="n">
+      <c r="Z27" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="398" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="399" t="n">
         <f aca="false">+AF27/AH27</f>
         <v>1.253313608</v>
       </c>
-      <c r="AD27" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="241"/>
-      <c r="AF27" s="399" t="n">
+      <c r="AD27" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="242"/>
+      <c r="AF27" s="400" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
-      <c r="AG27" s="241" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH27" s="400" t="n">
+      <c r="AG27" s="242" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH27" s="401" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -8360,87 +8372,87 @@
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="257" t="s">
+      <c r="D28" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="259" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="260" t="n">
+      <c r="E28" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="260" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="93"/>
+      <c r="H28" s="261" t="n">
         <f aca="false">+K28/M28</f>
         <v>3</v>
       </c>
-      <c r="I28" s="261" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="262"/>
-      <c r="K28" s="262" t="n">
+      <c r="I28" s="262" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="263"/>
+      <c r="K28" s="263" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L28" s="268" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="401" t="n">
+      <c r="L28" s="269" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="402" t="n">
         <f aca="false">+$H$13</f>
         <v>6</v>
       </c>
-      <c r="N28" s="329" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" s="92"/>
-      <c r="P28" s="402" t="n">
+      <c r="N28" s="330" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" s="93"/>
+      <c r="P28" s="403" t="n">
         <f aca="false">+S28/U28</f>
         <v>5.55E-007</v>
       </c>
-      <c r="Q28" s="261" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="262"/>
-      <c r="S28" s="262" t="n">
+      <c r="Q28" s="262" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="263"/>
+      <c r="S28" s="263" t="n">
         <f aca="false">+$P$15</f>
         <v>166.5</v>
       </c>
-      <c r="T28" s="268" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="401" t="n">
+      <c r="T28" s="269" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" s="402" t="n">
         <f aca="false">+$P$13</f>
         <v>300000000</v>
       </c>
-      <c r="V28" s="329"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="403" t="n">
+      <c r="V28" s="330"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="404" t="n">
         <v>3</v>
       </c>
-      <c r="Z28" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="404" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="405" t="n">
+      <c r="Z28" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="405" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="406" t="n">
         <f aca="false">+AF28/AH28</f>
         <v>1.25331466663131</v>
       </c>
-      <c r="AD28" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="258"/>
-      <c r="AF28" s="406" t="n">
+      <c r="AD28" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="259"/>
+      <c r="AF28" s="407" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG28" s="258" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH28" s="407" t="n">
+      <c r="AG28" s="259" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH28" s="408" t="n">
         <f aca="false">+$AC$13</f>
         <v>2.506627216</v>
       </c>
@@ -8451,93 +8463,93 @@
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="274" t="s">
+      <c r="D29" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="275" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="276" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="92"/>
-      <c r="H29" s="277" t="n">
+      <c r="E29" s="276" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="277" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="93"/>
+      <c r="H29" s="278" t="n">
         <f aca="false">+SQRT(K29/M29)</f>
         <v>3</v>
       </c>
-      <c r="I29" s="278" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="408" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="408" t="n">
+      <c r="I29" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="409" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="409" t="n">
         <f aca="false">+$H$15</f>
         <v>18</v>
       </c>
-      <c r="L29" s="278" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="409" t="n">
+      <c r="L29" s="279" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="410" t="n">
         <f aca="false">+$H$14</f>
         <v>2</v>
       </c>
-      <c r="N29" s="329" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" s="92"/>
-      <c r="P29" s="410" t="n">
+      <c r="N29" s="330" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" s="93"/>
+      <c r="P29" s="411" t="n">
         <f aca="false">+SQRT(S29/U29)</f>
         <v>5.55E-007</v>
       </c>
-      <c r="Q29" s="278" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="408" t="s">
-        <v>52</v>
-      </c>
-      <c r="S29" s="408" t="n">
+      <c r="Q29" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="409" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="409" t="n">
         <f aca="false">+$P$15</f>
         <v>166.5</v>
       </c>
-      <c r="T29" s="278" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="409" t="n">
+      <c r="T29" s="279" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="410" t="n">
         <f aca="false">+$P$14</f>
         <v>540540540540541</v>
       </c>
-      <c r="V29" s="329"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="411" t="n">
+      <c r="V29" s="330"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="412" t="n">
         <v>3</v>
       </c>
-      <c r="Z29" s="275" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="412" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="413" t="n">
+      <c r="Z29" s="276" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="413" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="414" t="n">
         <f aca="false">+SQRT(AF29/AH29)</f>
         <v>1.25331413731554</v>
       </c>
-      <c r="AD29" s="275" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="275" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF29" s="414" t="n">
+      <c r="AD29" s="276" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="276" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF29" s="415" t="n">
         <f aca="false">+$AC$15</f>
         <v>3.14159265359</v>
       </c>
-      <c r="AG29" s="275" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH29" s="415" t="n">
+      <c r="AG29" s="276" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH29" s="416" t="n">
         <f aca="false">+$AC$14</f>
         <v>2</v>
       </c>
@@ -8581,13 +8593,13 @@
       <c r="AH30" s="25"/>
       <c r="AI30" s="25"/>
       <c r="AJ30" s="23"/>
-      <c r="AO30" s="416" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP30" s="416" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="417" t="n">
+      <c r="AO30" s="417" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP30" s="417" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="418" t="n">
         <f aca="false">SQRT(AC15*2)</f>
         <v>2.50662827463108</v>
       </c>
@@ -8629,13 +8641,13 @@
       <c r="AH31" s="25"/>
       <c r="AI31" s="25"/>
       <c r="AJ31" s="23"/>
-      <c r="AO31" s="416" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP31" s="416" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="417" t="n">
+      <c r="AO31" s="417" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP31" s="417" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="418" t="n">
         <f aca="false">AC15/AC16</f>
         <v>2.50662933326261</v>
       </c>
@@ -8676,13 +8688,13 @@
       <c r="AH32" s="25"/>
       <c r="AI32" s="25"/>
       <c r="AJ32" s="23"/>
-      <c r="AO32" s="416" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP32" s="416" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="417" t="n">
+      <c r="AO32" s="417" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP32" s="417" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="418" t="n">
         <f aca="false">+AC14*AC16</f>
         <v>2.506627216</v>
       </c>
@@ -8724,44 +8736,44 @@
       <c r="AI33" s="25"/>
       <c r="AJ33" s="23"/>
       <c r="AK33" s="23"/>
-      <c r="AO33" s="418" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP33" s="419" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ33" s="420" t="n">
+      <c r="AO33" s="419" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP33" s="420" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="421" t="n">
         <f aca="false">+AC13/AC16</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="293"/>
+      <c r="B34" s="294"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="86"/>
+      <c r="D34" s="294"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="293"/>
-      <c r="K34" s="293"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="294"/>
-      <c r="N34" s="86"/>
+      <c r="J34" s="294"/>
+      <c r="K34" s="294"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="295"/>
+      <c r="N34" s="87"/>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
-      <c r="R34" s="293"/>
-      <c r="S34" s="293"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="294"/>
-      <c r="V34" s="86"/>
+      <c r="R34" s="294"/>
+      <c r="S34" s="294"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="295"/>
+      <c r="V34" s="87"/>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
-      <c r="AA34" s="86"/>
+      <c r="AA34" s="87"/>
       <c r="AB34" s="23"/>
       <c r="AC34" s="23"/>
       <c r="AD34" s="23"/>
@@ -8772,44 +8784,44 @@
       <c r="AI34" s="23"/>
       <c r="AJ34" s="23"/>
       <c r="AK34" s="23"/>
-      <c r="AO34" s="419" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP34" s="419" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="420" t="n">
+      <c r="AO34" s="420" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP34" s="420" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="421" t="n">
         <f aca="false">+AC13^2/AC15</f>
         <v>1.99999831066956</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="293"/>
+      <c r="B35" s="294"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="293"/>
-      <c r="E35" s="86"/>
+      <c r="D35" s="294"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="293"/>
-      <c r="K35" s="293"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="294"/>
-      <c r="N35" s="86"/>
+      <c r="J35" s="294"/>
+      <c r="K35" s="294"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="295"/>
+      <c r="N35" s="87"/>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
-      <c r="R35" s="293"/>
-      <c r="S35" s="293"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="294"/>
-      <c r="V35" s="86"/>
+      <c r="R35" s="294"/>
+      <c r="S35" s="294"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="295"/>
+      <c r="V35" s="87"/>
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
-      <c r="AA35" s="86"/>
+      <c r="AA35" s="87"/>
       <c r="AB35" s="23"/>
       <c r="AC35" s="23"/>
       <c r="AD35" s="23"/>
@@ -8820,44 +8832,44 @@
       <c r="AI35" s="23"/>
       <c r="AJ35" s="23"/>
       <c r="AK35" s="23"/>
-      <c r="AO35" s="419" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP35" s="419" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="420" t="n">
+      <c r="AO35" s="420" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP35" s="420" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="421" t="n">
         <f aca="false">+AC15/AC16^2</f>
         <v>2.00000168933186</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="293"/>
+      <c r="B36" s="294"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="293"/>
-      <c r="E36" s="86"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="293"/>
-      <c r="K36" s="293"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="294"/>
-      <c r="N36" s="86"/>
+      <c r="J36" s="294"/>
+      <c r="K36" s="294"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="295"/>
+      <c r="N36" s="87"/>
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
-      <c r="R36" s="293"/>
-      <c r="S36" s="293"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="294"/>
-      <c r="V36" s="86"/>
+      <c r="R36" s="294"/>
+      <c r="S36" s="294"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="295"/>
+      <c r="V36" s="87"/>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
-      <c r="AA36" s="86"/>
+      <c r="AA36" s="87"/>
       <c r="AB36" s="23"/>
       <c r="AC36" s="23"/>
       <c r="AD36" s="23"/>
@@ -8868,44 +8880,44 @@
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="23"/>
-      <c r="AO36" s="421" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP36" s="421" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ36" s="422" t="n">
+      <c r="AO36" s="422" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP36" s="422" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="423" t="n">
         <f aca="false">+AC13^2/AC14</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="293"/>
+      <c r="B37" s="294"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="293"/>
-      <c r="E37" s="86"/>
+      <c r="D37" s="294"/>
+      <c r="E37" s="87"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="293"/>
-      <c r="K37" s="293"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="294"/>
-      <c r="N37" s="86"/>
+      <c r="J37" s="294"/>
+      <c r="K37" s="294"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="295"/>
+      <c r="N37" s="87"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
-      <c r="R37" s="293"/>
-      <c r="S37" s="293"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="294"/>
-      <c r="V37" s="86"/>
+      <c r="R37" s="294"/>
+      <c r="S37" s="294"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="295"/>
+      <c r="V37" s="87"/>
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
-      <c r="AA37" s="86"/>
+      <c r="AA37" s="87"/>
       <c r="AB37" s="23"/>
       <c r="AC37" s="23"/>
       <c r="AD37" s="23"/>
@@ -8916,44 +8928,44 @@
       <c r="AI37" s="23"/>
       <c r="AJ37" s="23"/>
       <c r="AK37" s="23"/>
-      <c r="AO37" s="421" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP37" s="421" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="422" t="n">
+      <c r="AO37" s="422" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP37" s="422" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="423" t="n">
         <f aca="false">+(AC16^2)*2</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="293"/>
+      <c r="B38" s="294"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="86"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="87"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="293"/>
-      <c r="K38" s="293"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="294"/>
-      <c r="N38" s="86"/>
+      <c r="J38" s="294"/>
+      <c r="K38" s="294"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="295"/>
+      <c r="N38" s="87"/>
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
-      <c r="R38" s="293"/>
-      <c r="S38" s="293"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="294"/>
-      <c r="V38" s="86"/>
+      <c r="R38" s="294"/>
+      <c r="S38" s="294"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="295"/>
+      <c r="V38" s="87"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
-      <c r="AA38" s="86"/>
+      <c r="AA38" s="87"/>
       <c r="AB38" s="23"/>
       <c r="AC38" s="23"/>
       <c r="AD38" s="23"/>
@@ -8964,44 +8976,44 @@
       <c r="AI38" s="23"/>
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
-      <c r="AO38" s="421" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP38" s="421" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="422" t="n">
+      <c r="AO38" s="422" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP38" s="422" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="423" t="n">
         <f aca="false">+AC13*AC16</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="293"/>
+      <c r="B39" s="294"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="86"/>
+      <c r="D39" s="294"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="293"/>
-      <c r="K39" s="293"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="294"/>
-      <c r="N39" s="86"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="294"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="295"/>
+      <c r="N39" s="87"/>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
-      <c r="R39" s="293"/>
-      <c r="S39" s="293"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="294"/>
-      <c r="V39" s="86"/>
+      <c r="R39" s="294"/>
+      <c r="S39" s="294"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="295"/>
+      <c r="V39" s="87"/>
       <c r="W39" s="23"/>
       <c r="X39" s="23"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
-      <c r="AA39" s="86"/>
+      <c r="AA39" s="87"/>
       <c r="AB39" s="23"/>
       <c r="AC39" s="23"/>
       <c r="AD39" s="23"/>
@@ -9012,44 +9024,44 @@
       <c r="AI39" s="23"/>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
-      <c r="AO39" s="423" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP39" s="424" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ39" s="425" t="n">
+      <c r="AO39" s="424" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP39" s="425" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="426" t="n">
         <f aca="false">+AC13/AC14</f>
         <v>1.253313608</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="293"/>
+      <c r="B40" s="294"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="86"/>
+      <c r="D40" s="294"/>
+      <c r="E40" s="87"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="293"/>
-      <c r="K40" s="293"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="294"/>
-      <c r="N40" s="86"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="294"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="295"/>
+      <c r="N40" s="87"/>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
-      <c r="R40" s="293"/>
-      <c r="S40" s="293"/>
-      <c r="T40" s="86"/>
-      <c r="U40" s="294"/>
-      <c r="V40" s="86"/>
+      <c r="R40" s="294"/>
+      <c r="S40" s="294"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="295"/>
+      <c r="V40" s="87"/>
       <c r="W40" s="23"/>
       <c r="X40" s="23"/>
       <c r="Y40" s="23"/>
       <c r="Z40" s="23"/>
-      <c r="AA40" s="86"/>
+      <c r="AA40" s="87"/>
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
@@ -9060,44 +9072,44 @@
       <c r="AI40" s="23"/>
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
-      <c r="AO40" s="424" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP40" s="424" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="425" t="n">
+      <c r="AO40" s="425" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP40" s="425" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="426" t="n">
         <f aca="false">+AC15/AC13</f>
         <v>1.25331466663131</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="293"/>
+      <c r="B41" s="294"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="293"/>
-      <c r="E41" s="86"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="87"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="293"/>
-      <c r="K41" s="293"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="294"/>
-      <c r="N41" s="86"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="294"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="295"/>
+      <c r="N41" s="87"/>
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
       <c r="Q41" s="23"/>
-      <c r="R41" s="293"/>
-      <c r="S41" s="293"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="294"/>
-      <c r="V41" s="86"/>
+      <c r="R41" s="294"/>
+      <c r="S41" s="294"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="295"/>
+      <c r="V41" s="87"/>
       <c r="W41" s="23"/>
       <c r="X41" s="23"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
-      <c r="AA41" s="86"/>
+      <c r="AA41" s="87"/>
       <c r="AB41" s="23"/>
       <c r="AC41" s="23"/>
       <c r="AD41" s="23"/>
@@ -9108,44 +9120,44 @@
       <c r="AI41" s="23"/>
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
-      <c r="AO41" s="424" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP41" s="424" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ41" s="425" t="n">
+      <c r="AO41" s="425" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP41" s="425" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="426" t="n">
         <f aca="false">+SQRT(AC15/AC14)</f>
         <v>1.25331413731554</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="293"/>
+      <c r="B42" s="294"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="293"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="294"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="293"/>
-      <c r="K42" s="293"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="294"/>
-      <c r="N42" s="86"/>
+      <c r="J42" s="294"/>
+      <c r="K42" s="294"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="295"/>
+      <c r="N42" s="87"/>
       <c r="O42" s="23"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>
-      <c r="R42" s="293"/>
-      <c r="S42" s="293"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="294"/>
-      <c r="V42" s="86"/>
+      <c r="R42" s="294"/>
+      <c r="S42" s="294"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="295"/>
+      <c r="V42" s="87"/>
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
       <c r="Z42" s="23"/>
-      <c r="AA42" s="86"/>
+      <c r="AA42" s="87"/>
       <c r="AB42" s="23"/>
       <c r="AC42" s="23"/>
       <c r="AD42" s="23"/>
@@ -9158,32 +9170,32 @@
       <c r="AK42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="293"/>
+      <c r="B43" s="294"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="294"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="293"/>
-      <c r="K43" s="293"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="294"/>
-      <c r="N43" s="86"/>
+      <c r="J43" s="294"/>
+      <c r="K43" s="294"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="295"/>
+      <c r="N43" s="87"/>
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
-      <c r="R43" s="293"/>
-      <c r="S43" s="293"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="294"/>
-      <c r="V43" s="86"/>
+      <c r="R43" s="294"/>
+      <c r="S43" s="294"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="295"/>
+      <c r="V43" s="87"/>
       <c r="W43" s="23"/>
       <c r="X43" s="23"/>
       <c r="Y43" s="23"/>
       <c r="Z43" s="23"/>
-      <c r="AA43" s="86"/>
+      <c r="AA43" s="87"/>
       <c r="AB43" s="23"/>
       <c r="AC43" s="23"/>
       <c r="AD43" s="23"/>
@@ -9196,32 +9208,32 @@
       <c r="AK43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="293"/>
+      <c r="B44" s="294"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="293"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="294"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="293"/>
-      <c r="K44" s="293"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="294"/>
-      <c r="N44" s="86"/>
+      <c r="J44" s="294"/>
+      <c r="K44" s="294"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="295"/>
+      <c r="N44" s="87"/>
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
-      <c r="R44" s="293"/>
-      <c r="S44" s="293"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="294"/>
-      <c r="V44" s="86"/>
+      <c r="R44" s="294"/>
+      <c r="S44" s="294"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="295"/>
+      <c r="V44" s="87"/>
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
-      <c r="AA44" s="86"/>
+      <c r="AA44" s="87"/>
       <c r="AB44" s="23"/>
       <c r="AC44" s="23"/>
       <c r="AD44" s="23"/>
@@ -9234,32 +9246,32 @@
       <c r="AK44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="293"/>
+      <c r="B45" s="294"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="86"/>
+      <c r="D45" s="294"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="293"/>
-      <c r="K45" s="293"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="294"/>
-      <c r="N45" s="86"/>
+      <c r="J45" s="294"/>
+      <c r="K45" s="294"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="295"/>
+      <c r="N45" s="87"/>
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="23"/>
-      <c r="R45" s="293"/>
-      <c r="S45" s="293"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="294"/>
-      <c r="V45" s="86"/>
+      <c r="R45" s="294"/>
+      <c r="S45" s="294"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="295"/>
+      <c r="V45" s="87"/>
       <c r="W45" s="23"/>
       <c r="X45" s="23"/>
       <c r="Y45" s="23"/>
       <c r="Z45" s="23"/>
-      <c r="AA45" s="86"/>
+      <c r="AA45" s="87"/>
       <c r="AB45" s="23"/>
       <c r="AC45" s="23"/>
       <c r="AD45" s="23"/>
@@ -9272,32 +9284,32 @@
       <c r="AK45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="293"/>
+      <c r="B46" s="294"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="294"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="293"/>
-      <c r="K46" s="293"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="294"/>
-      <c r="N46" s="86"/>
+      <c r="J46" s="294"/>
+      <c r="K46" s="294"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="295"/>
+      <c r="N46" s="87"/>
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
-      <c r="R46" s="293"/>
-      <c r="S46" s="293"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="294"/>
-      <c r="V46" s="86"/>
+      <c r="R46" s="294"/>
+      <c r="S46" s="294"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="295"/>
+      <c r="V46" s="87"/>
       <c r="W46" s="23"/>
       <c r="X46" s="23"/>
       <c r="Y46" s="23"/>
       <c r="Z46" s="23"/>
-      <c r="AA46" s="86"/>
+      <c r="AA46" s="87"/>
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
       <c r="AD46" s="23"/>
@@ -9310,32 +9322,32 @@
       <c r="AK46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="293"/>
+      <c r="B47" s="294"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="294"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="293"/>
-      <c r="K47" s="293"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="294"/>
-      <c r="N47" s="86"/>
+      <c r="J47" s="294"/>
+      <c r="K47" s="294"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="295"/>
+      <c r="N47" s="87"/>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
-      <c r="R47" s="293"/>
-      <c r="S47" s="293"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="294"/>
-      <c r="V47" s="86"/>
+      <c r="R47" s="294"/>
+      <c r="S47" s="294"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="295"/>
+      <c r="V47" s="87"/>
       <c r="W47" s="23"/>
       <c r="X47" s="23"/>
       <c r="Y47" s="23"/>
       <c r="Z47" s="23"/>
-      <c r="AA47" s="86"/>
+      <c r="AA47" s="87"/>
       <c r="AB47" s="23"/>
       <c r="AC47" s="23"/>
       <c r="AD47" s="23"/>
@@ -9348,32 +9360,32 @@
       <c r="AK47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="293"/>
+      <c r="B48" s="294"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="293"/>
-      <c r="E48" s="86"/>
+      <c r="D48" s="294"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="293"/>
-      <c r="K48" s="293"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="294"/>
-      <c r="N48" s="86"/>
+      <c r="J48" s="294"/>
+      <c r="K48" s="294"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="295"/>
+      <c r="N48" s="87"/>
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
-      <c r="R48" s="293"/>
-      <c r="S48" s="293"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="294"/>
-      <c r="V48" s="86"/>
+      <c r="R48" s="294"/>
+      <c r="S48" s="294"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="295"/>
+      <c r="V48" s="87"/>
       <c r="W48" s="23"/>
       <c r="X48" s="23"/>
       <c r="Y48" s="23"/>
       <c r="Z48" s="23"/>
-      <c r="AA48" s="86"/>
+      <c r="AA48" s="87"/>
       <c r="AB48" s="23"/>
       <c r="AC48" s="23"/>
       <c r="AD48" s="23"/>
@@ -9386,32 +9398,32 @@
       <c r="AK48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="293"/>
+      <c r="B49" s="294"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="293"/>
-      <c r="E49" s="86"/>
+      <c r="D49" s="294"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="293"/>
-      <c r="K49" s="293"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="294"/>
-      <c r="N49" s="86"/>
+      <c r="J49" s="294"/>
+      <c r="K49" s="294"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="295"/>
+      <c r="N49" s="87"/>
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
-      <c r="R49" s="293"/>
-      <c r="S49" s="293"/>
-      <c r="T49" s="86"/>
-      <c r="U49" s="294"/>
-      <c r="V49" s="86"/>
+      <c r="R49" s="294"/>
+      <c r="S49" s="294"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="295"/>
+      <c r="V49" s="87"/>
       <c r="W49" s="23"/>
       <c r="X49" s="23"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
-      <c r="AA49" s="86"/>
+      <c r="AA49" s="87"/>
       <c r="AB49" s="23"/>
       <c r="AC49" s="23"/>
       <c r="AD49" s="23"/>
@@ -9424,32 +9436,32 @@
       <c r="AK49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="293"/>
+      <c r="B50" s="294"/>
       <c r="C50" s="23"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="86"/>
+      <c r="D50" s="294"/>
+      <c r="E50" s="87"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="293"/>
-      <c r="K50" s="293"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="294"/>
-      <c r="N50" s="86"/>
+      <c r="J50" s="294"/>
+      <c r="K50" s="294"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="295"/>
+      <c r="N50" s="87"/>
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
-      <c r="R50" s="293"/>
-      <c r="S50" s="293"/>
-      <c r="T50" s="86"/>
-      <c r="U50" s="294"/>
-      <c r="V50" s="86"/>
+      <c r="R50" s="294"/>
+      <c r="S50" s="294"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="295"/>
+      <c r="V50" s="87"/>
       <c r="W50" s="23"/>
       <c r="X50" s="23"/>
       <c r="Y50" s="23"/>
       <c r="Z50" s="23"/>
-      <c r="AA50" s="86"/>
+      <c r="AA50" s="87"/>
       <c r="AB50" s="23"/>
       <c r="AC50" s="23"/>
       <c r="AD50" s="23"/>
@@ -9462,32 +9474,32 @@
       <c r="AK50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="293"/>
+      <c r="B51" s="294"/>
       <c r="C51" s="23"/>
-      <c r="D51" s="293"/>
-      <c r="E51" s="86"/>
+      <c r="D51" s="294"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="293"/>
-      <c r="K51" s="293"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="294"/>
-      <c r="N51" s="86"/>
+      <c r="J51" s="294"/>
+      <c r="K51" s="294"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="295"/>
+      <c r="N51" s="87"/>
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
-      <c r="R51" s="293"/>
-      <c r="S51" s="293"/>
-      <c r="T51" s="86"/>
-      <c r="U51" s="294"/>
-      <c r="V51" s="86"/>
+      <c r="R51" s="294"/>
+      <c r="S51" s="294"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="295"/>
+      <c r="V51" s="87"/>
       <c r="W51" s="23"/>
       <c r="X51" s="23"/>
       <c r="Y51" s="23"/>
       <c r="Z51" s="23"/>
-      <c r="AA51" s="86"/>
+      <c r="AA51" s="87"/>
       <c r="AB51" s="23"/>
       <c r="AC51" s="23"/>
       <c r="AD51" s="23"/>
@@ -9500,32 +9512,32 @@
       <c r="AK51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="293"/>
+      <c r="B52" s="294"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="293"/>
-      <c r="E52" s="86"/>
+      <c r="D52" s="294"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="293"/>
-      <c r="K52" s="293"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="294"/>
-      <c r="N52" s="86"/>
+      <c r="J52" s="294"/>
+      <c r="K52" s="294"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="295"/>
+      <c r="N52" s="87"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
-      <c r="R52" s="293"/>
-      <c r="S52" s="293"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="294"/>
-      <c r="V52" s="86"/>
+      <c r="R52" s="294"/>
+      <c r="S52" s="294"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="295"/>
+      <c r="V52" s="87"/>
       <c r="W52" s="23"/>
       <c r="X52" s="23"/>
       <c r="Y52" s="23"/>
       <c r="Z52" s="23"/>
-      <c r="AA52" s="86"/>
+      <c r="AA52" s="87"/>
       <c r="AB52" s="23"/>
       <c r="AC52" s="23"/>
       <c r="AD52" s="23"/>
@@ -9538,32 +9550,32 @@
       <c r="AK52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="293"/>
+      <c r="B53" s="294"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="293"/>
-      <c r="E53" s="86"/>
+      <c r="D53" s="294"/>
+      <c r="E53" s="87"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="293"/>
-      <c r="K53" s="293"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="294"/>
-      <c r="N53" s="86"/>
+      <c r="J53" s="294"/>
+      <c r="K53" s="294"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="295"/>
+      <c r="N53" s="87"/>
       <c r="O53" s="23"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
-      <c r="R53" s="293"/>
-      <c r="S53" s="293"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="294"/>
-      <c r="V53" s="86"/>
+      <c r="R53" s="294"/>
+      <c r="S53" s="294"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="295"/>
+      <c r="V53" s="87"/>
       <c r="W53" s="23"/>
       <c r="X53" s="23"/>
       <c r="Y53" s="23"/>
       <c r="Z53" s="23"/>
-      <c r="AA53" s="86"/>
+      <c r="AA53" s="87"/>
       <c r="AB53" s="23"/>
       <c r="AC53" s="23"/>
       <c r="AD53" s="23"/>
@@ -9576,32 +9588,32 @@
       <c r="AK53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="293"/>
+      <c r="B54" s="294"/>
       <c r="C54" s="23"/>
-      <c r="D54" s="293"/>
-      <c r="E54" s="86"/>
+      <c r="D54" s="294"/>
+      <c r="E54" s="87"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="293"/>
-      <c r="K54" s="293"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="294"/>
-      <c r="N54" s="86"/>
+      <c r="J54" s="294"/>
+      <c r="K54" s="294"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="295"/>
+      <c r="N54" s="87"/>
       <c r="O54" s="23"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
-      <c r="R54" s="293"/>
-      <c r="S54" s="293"/>
-      <c r="T54" s="86"/>
-      <c r="U54" s="294"/>
-      <c r="V54" s="86"/>
+      <c r="R54" s="294"/>
+      <c r="S54" s="294"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="295"/>
+      <c r="V54" s="87"/>
       <c r="W54" s="23"/>
       <c r="X54" s="23"/>
       <c r="Y54" s="23"/>
       <c r="Z54" s="23"/>
-      <c r="AA54" s="86"/>
+      <c r="AA54" s="87"/>
       <c r="AB54" s="23"/>
       <c r="AC54" s="23"/>
       <c r="AD54" s="23"/>
@@ -9614,32 +9626,32 @@
       <c r="AK54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="293"/>
+      <c r="B55" s="294"/>
       <c r="C55" s="23"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="86"/>
+      <c r="D55" s="294"/>
+      <c r="E55" s="87"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="293"/>
-      <c r="K55" s="293"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="294"/>
-      <c r="N55" s="86"/>
+      <c r="J55" s="294"/>
+      <c r="K55" s="294"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="295"/>
+      <c r="N55" s="87"/>
       <c r="O55" s="23"/>
       <c r="P55" s="23"/>
       <c r="Q55" s="23"/>
-      <c r="R55" s="293"/>
-      <c r="S55" s="293"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="294"/>
-      <c r="V55" s="86"/>
+      <c r="R55" s="294"/>
+      <c r="S55" s="294"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="295"/>
+      <c r="V55" s="87"/>
       <c r="W55" s="23"/>
       <c r="X55" s="23"/>
       <c r="Y55" s="23"/>
       <c r="Z55" s="23"/>
-      <c r="AA55" s="86"/>
+      <c r="AA55" s="87"/>
       <c r="AB55" s="23"/>
       <c r="AC55" s="23"/>
       <c r="AD55" s="23"/>
@@ -9652,32 +9664,32 @@
       <c r="AK55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="293"/>
+      <c r="B56" s="294"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="293"/>
-      <c r="E56" s="86"/>
+      <c r="D56" s="294"/>
+      <c r="E56" s="87"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
-      <c r="J56" s="293"/>
-      <c r="K56" s="293"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="294"/>
-      <c r="N56" s="86"/>
+      <c r="J56" s="294"/>
+      <c r="K56" s="294"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="295"/>
+      <c r="N56" s="87"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
-      <c r="R56" s="293"/>
-      <c r="S56" s="293"/>
-      <c r="T56" s="86"/>
-      <c r="U56" s="294"/>
-      <c r="V56" s="86"/>
+      <c r="R56" s="294"/>
+      <c r="S56" s="294"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="295"/>
+      <c r="V56" s="87"/>
       <c r="W56" s="23"/>
       <c r="X56" s="23"/>
       <c r="Y56" s="23"/>
       <c r="Z56" s="23"/>
-      <c r="AA56" s="86"/>
+      <c r="AA56" s="87"/>
       <c r="AB56" s="23"/>
       <c r="AC56" s="23"/>
       <c r="AD56" s="23"/>
@@ -9690,32 +9702,32 @@
       <c r="AK56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="293"/>
+      <c r="B57" s="294"/>
       <c r="C57" s="23"/>
-      <c r="D57" s="293"/>
-      <c r="E57" s="86"/>
+      <c r="D57" s="294"/>
+      <c r="E57" s="87"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
-      <c r="J57" s="293"/>
-      <c r="K57" s="293"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="294"/>
-      <c r="N57" s="86"/>
+      <c r="J57" s="294"/>
+      <c r="K57" s="294"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="295"/>
+      <c r="N57" s="87"/>
       <c r="O57" s="23"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="23"/>
-      <c r="R57" s="293"/>
-      <c r="S57" s="293"/>
-      <c r="T57" s="86"/>
-      <c r="U57" s="294"/>
-      <c r="V57" s="86"/>
+      <c r="R57" s="294"/>
+      <c r="S57" s="294"/>
+      <c r="T57" s="87"/>
+      <c r="U57" s="295"/>
+      <c r="V57" s="87"/>
       <c r="W57" s="23"/>
       <c r="X57" s="23"/>
       <c r="Y57" s="23"/>
       <c r="Z57" s="23"/>
-      <c r="AA57" s="86"/>
+      <c r="AA57" s="87"/>
       <c r="AB57" s="23"/>
       <c r="AC57" s="23"/>
       <c r="AD57" s="23"/>
@@ -9728,32 +9740,32 @@
       <c r="AK57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="293"/>
+      <c r="B58" s="294"/>
       <c r="C58" s="23"/>
-      <c r="D58" s="293"/>
-      <c r="E58" s="86"/>
+      <c r="D58" s="294"/>
+      <c r="E58" s="87"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
-      <c r="J58" s="293"/>
-      <c r="K58" s="293"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="294"/>
-      <c r="N58" s="86"/>
+      <c r="J58" s="294"/>
+      <c r="K58" s="294"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="295"/>
+      <c r="N58" s="87"/>
       <c r="O58" s="23"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
-      <c r="R58" s="293"/>
-      <c r="S58" s="293"/>
-      <c r="T58" s="86"/>
-      <c r="U58" s="294"/>
-      <c r="V58" s="86"/>
+      <c r="R58" s="294"/>
+      <c r="S58" s="294"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="295"/>
+      <c r="V58" s="87"/>
       <c r="W58" s="23"/>
       <c r="X58" s="23"/>
       <c r="Y58" s="23"/>
       <c r="Z58" s="23"/>
-      <c r="AA58" s="86"/>
+      <c r="AA58" s="87"/>
       <c r="AB58" s="23"/>
       <c r="AC58" s="23"/>
       <c r="AD58" s="23"/>
@@ -9814,7 +9826,7 @@
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.63"/>
@@ -9968,28 +9980,28 @@
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="299" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
+      <c r="D6" s="300" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
       <c r="G6" s="45"/>
-      <c r="H6" s="299" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="299"/>
-      <c r="J6" s="299"/>
+      <c r="H6" s="300" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
       <c r="K6" s="45"/>
-      <c r="L6" s="299" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="299"/>
-      <c r="N6" s="299"/>
-      <c r="O6" s="299"/>
-      <c r="P6" s="299"/>
-      <c r="Q6" s="299"/>
+      <c r="L6" s="300" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="86"/>
+      <c r="S6" s="87"/>
       <c r="T6" s="9" t="s">
         <v>4</v>
       </c>
@@ -10010,141 +10022,141 @@
       <c r="A7" s="23"/>
       <c r="B7" s="43"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="426" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="426"/>
-      <c r="F7" s="426"/>
+      <c r="D7" s="427" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="427"/>
+      <c r="F7" s="427"/>
       <c r="G7" s="45"/>
-      <c r="H7" s="426" t="n">
+      <c r="H7" s="427" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="426"/>
-      <c r="J7" s="426"/>
+      <c r="I7" s="427"/>
+      <c r="J7" s="427"/>
       <c r="K7" s="45"/>
-      <c r="L7" s="305" t="n">
+      <c r="L7" s="306" t="n">
         <v>2.506627216</v>
       </c>
-      <c r="M7" s="306"/>
-      <c r="N7" s="307"/>
-      <c r="O7" s="308" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="308"/>
-      <c r="Q7" s="308"/>
+      <c r="M7" s="307"/>
+      <c r="N7" s="308"/>
+      <c r="O7" s="309" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="309"/>
+      <c r="Q7" s="309"/>
       <c r="R7" s="25"/>
-      <c r="S7" s="86"/>
+      <c r="S7" s="87"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="10"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-      <c r="Y7" s="427"/>
+      <c r="Y7" s="428"/>
     </row>
     <row r="8" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="23"/>
       <c r="B8" s="43"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="428" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="428"/>
-      <c r="F8" s="428"/>
+      <c r="D8" s="429" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="429"/>
+      <c r="F8" s="429"/>
       <c r="G8" s="45"/>
-      <c r="H8" s="428" t="n">
+      <c r="H8" s="429" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="428"/>
-      <c r="J8" s="428"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="429"/>
       <c r="K8" s="45"/>
-      <c r="L8" s="429" t="n">
+      <c r="L8" s="430" t="n">
         <v>2</v>
       </c>
       <c r="M8" s="28"/>
-      <c r="N8" s="313"/>
-      <c r="O8" s="314" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="314"/>
-      <c r="Q8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="315" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="315"/>
+      <c r="Q8" s="315"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="86"/>
+      <c r="S8" s="87"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="10"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
-      <c r="Y8" s="427"/>
+      <c r="Y8" s="428"/>
     </row>
     <row r="9" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="23"/>
       <c r="B9" s="43"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="428" t="s">
+      <c r="D9" s="429" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="428"/>
-      <c r="F9" s="428"/>
+      <c r="E9" s="429"/>
+      <c r="F9" s="429"/>
       <c r="G9" s="45"/>
-      <c r="H9" s="428" t="n">
+      <c r="H9" s="429" t="n">
         <v>18</v>
       </c>
-      <c r="I9" s="428"/>
-      <c r="J9" s="428"/>
+      <c r="I9" s="429"/>
+      <c r="J9" s="429"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="316" t="n">
+      <c r="L9" s="317" t="n">
         <v>3.14159265359</v>
       </c>
       <c r="M9" s="28"/>
-      <c r="N9" s="313"/>
-      <c r="O9" s="317" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="317"/>
-      <c r="Q9" s="317"/>
-      <c r="R9" s="318"/>
-      <c r="S9" s="86"/>
+      <c r="N9" s="314"/>
+      <c r="O9" s="318" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="318"/>
+      <c r="Q9" s="318"/>
+      <c r="R9" s="319"/>
+      <c r="S9" s="87"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="10"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="Y9" s="427"/>
+      <c r="Y9" s="428"/>
     </row>
     <row r="10" customFormat="false" ht="33.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="23"/>
       <c r="B10" s="43"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="430" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="430"/>
-      <c r="F10" s="430"/>
+      <c r="D10" s="431" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="431"/>
+      <c r="F10" s="431"/>
       <c r="G10" s="45"/>
-      <c r="H10" s="430" t="n">
+      <c r="H10" s="431" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="430"/>
-      <c r="J10" s="430"/>
+      <c r="I10" s="431"/>
+      <c r="J10" s="431"/>
       <c r="K10" s="45"/>
-      <c r="L10" s="321" t="n">
+      <c r="L10" s="322" t="n">
         <v>1.25331413732</v>
       </c>
-      <c r="M10" s="322"/>
-      <c r="N10" s="323"/>
-      <c r="O10" s="324" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="324"/>
-      <c r="Q10" s="324"/>
+      <c r="M10" s="323"/>
+      <c r="N10" s="324"/>
+      <c r="O10" s="325" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="325"/>
+      <c r="Q10" s="325"/>
       <c r="R10" s="25"/>
-      <c r="S10" s="86"/>
+      <c r="S10" s="87"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="10"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
-      <c r="Y10" s="427"/>
+      <c r="Y10" s="428"/>
     </row>
     <row r="11" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="23"/>
@@ -10158,110 +10170,110 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="325"/>
-      <c r="M11" s="103"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="104"/>
       <c r="N11" s="44"/>
-      <c r="O11" s="326"/>
-      <c r="P11" s="326"/>
-      <c r="Q11" s="326"/>
+      <c r="O11" s="327"/>
+      <c r="P11" s="327"/>
+      <c r="Q11" s="327"/>
       <c r="R11" s="25"/>
-      <c r="S11" s="86"/>
+      <c r="S11" s="87"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="10"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="427"/>
+      <c r="Y11" s="428"/>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="331" t="n">
+      <c r="E12" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="332" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="332" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="108"/>
-      <c r="L12" s="333" t="n">
+      <c r="I12" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="333" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="109"/>
+      <c r="L12" s="334" t="n">
         <f aca="false">SQRT(O12*Q12)</f>
         <v>2.50662827463108</v>
       </c>
-      <c r="M12" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="334" t="n">
+      <c r="M12" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="335" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P12" s="335" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="431" t="n">
+      <c r="P12" s="336" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="432" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
       <c r="R12" s="25"/>
       <c r="S12" s="23"/>
-      <c r="W12" s="432"/>
+      <c r="W12" s="433"/>
     </row>
     <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="339" t="n">
+      <c r="E13" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="340" t="n">
         <v>6</v>
       </c>
-      <c r="I13" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="340" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="341" t="n">
+      <c r="I13" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="341" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="109"/>
+      <c r="L13" s="342" t="n">
         <f aca="false">+O13/Q13</f>
         <v>2.50662827462217</v>
       </c>
-      <c r="M13" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="111"/>
-      <c r="O13" s="342" t="n">
+      <c r="M13" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="112"/>
+      <c r="O13" s="343" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P13" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="343" t="n">
+      <c r="P13" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="344" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -10272,42 +10284,42 @@
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="92"/>
-      <c r="H14" s="347" t="n">
+      <c r="E14" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="348" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="348" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="349" t="n">
+      <c r="I14" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="349" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="109"/>
+      <c r="L14" s="350" t="n">
         <f aca="false">+Q14*O14</f>
         <v>2.50662827464</v>
       </c>
-      <c r="M14" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="127"/>
-      <c r="O14" s="132" t="n">
+      <c r="M14" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="128"/>
+      <c r="O14" s="133" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
-      <c r="P14" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="351" t="n">
+      <c r="P14" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="352" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -10317,41 +10329,41 @@
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="356" t="n">
+      <c r="E15" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="93"/>
+      <c r="H15" s="357" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="357" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="108"/>
-      <c r="L15" s="148" t="n">
+      <c r="I15" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="358" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="109"/>
+      <c r="L15" s="149" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="146"/>
-      <c r="O15" s="359" t="n">
+      <c r="M15" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="147"/>
+      <c r="O15" s="360" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
-      <c r="P15" s="146" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="360" t="n">
+      <c r="P15" s="147" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="361" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -10362,41 +10374,41 @@
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="363" t="n">
+      <c r="E16" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="165" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="93"/>
+      <c r="H16" s="364" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="364" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="108"/>
-      <c r="L16" s="165" t="n">
+      <c r="I16" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="365" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="109"/>
+      <c r="L16" s="166" t="n">
         <v>2</v>
       </c>
-      <c r="M16" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="163"/>
-      <c r="O16" s="365" t="n">
+      <c r="M16" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="164"/>
+      <c r="O16" s="366" t="n">
         <f aca="false">+$L$7^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="P16" s="163" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="366" t="n">
+      <c r="P16" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="367" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
@@ -10407,41 +10419,41 @@
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="180" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="369" t="n">
+      <c r="E17" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="93"/>
+      <c r="H17" s="370" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="370" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="108"/>
-      <c r="L17" s="181" t="n">
+      <c r="I17" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="371" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="109"/>
+      <c r="L17" s="182" t="n">
         <f aca="false">+O17/Q17</f>
         <v>1.99898608521985</v>
       </c>
-      <c r="M17" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="179"/>
-      <c r="O17" s="371" t="n">
+      <c r="M17" s="180" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="180"/>
+      <c r="O17" s="372" t="n">
         <v>3.14</v>
       </c>
-      <c r="P17" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="372" t="n">
+      <c r="P17" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="373" t="n">
         <f aca="false">+$L$10^2</f>
         <v>1.57079632680618</v>
       </c>
@@ -10452,42 +10464,42 @@
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="193" t="s">
+      <c r="D18" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="195" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="92"/>
-      <c r="H18" s="375" t="n">
+      <c r="E18" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="376" t="n">
         <v>18</v>
       </c>
-      <c r="I18" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="376" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="108"/>
-      <c r="L18" s="377" t="n">
+      <c r="I18" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="377" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="109"/>
+      <c r="L18" s="378" t="n">
         <f aca="false">+O18/Q18</f>
         <v>3.14158999999596</v>
       </c>
-      <c r="M18" s="194" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="194"/>
-      <c r="O18" s="433" t="n">
+      <c r="M18" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="195"/>
+      <c r="O18" s="434" t="n">
         <f aca="false">+$L$7^2</f>
         <v>6.28317999999191</v>
       </c>
-      <c r="P18" s="194" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="434" t="n">
+      <c r="P18" s="195" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="435" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
@@ -10498,42 +10510,42 @@
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="208" t="s">
+      <c r="D19" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="210" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="92"/>
-      <c r="H19" s="382" t="n">
+      <c r="E19" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="93"/>
+      <c r="H19" s="383" t="n">
         <v>18</v>
       </c>
-      <c r="I19" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="383" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="108"/>
-      <c r="L19" s="384" t="n">
+      <c r="I19" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="384" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="109"/>
+      <c r="L19" s="385" t="n">
         <f aca="false">+Q19*O19</f>
         <v>3.14159265361235</v>
       </c>
-      <c r="M19" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="209"/>
-      <c r="O19" s="214" t="n">
+      <c r="M19" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="210"/>
+      <c r="O19" s="215" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
-      <c r="P19" s="209" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="435" t="n">
+      <c r="P19" s="210" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="436" t="n">
         <f aca="false">+$L$10^2</f>
         <v>1.57079632680618</v>
       </c>
@@ -10543,42 +10555,42 @@
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="225" t="s">
+      <c r="D20" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="227" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="388" t="n">
+      <c r="E20" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="228" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="93"/>
+      <c r="H20" s="389" t="n">
         <v>18</v>
       </c>
-      <c r="I20" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="389" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="108"/>
-      <c r="L20" s="390" t="n">
+      <c r="I20" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="390" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="109"/>
+      <c r="L20" s="391" t="n">
         <f aca="false">+O20*Q20</f>
         <v>3.14159132680387</v>
       </c>
-      <c r="M20" s="226" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="226"/>
-      <c r="O20" s="391" t="n">
+      <c r="M20" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="227"/>
+      <c r="O20" s="392" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
-      <c r="P20" s="226" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="392" t="n">
+      <c r="P20" s="227" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="393" t="n">
         <f aca="false">+$L$10</f>
         <v>1.25331413732</v>
       </c>
@@ -10589,42 +10601,42 @@
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="240" t="s">
+      <c r="D21" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="92"/>
-      <c r="H21" s="396" t="n">
+      <c r="E21" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="243" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="93"/>
+      <c r="H21" s="397" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="397" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="398" t="n">
+      <c r="I21" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="398" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="93"/>
+      <c r="L21" s="399" t="n">
         <f aca="false">+O21/Q21</f>
         <v>1.253313608</v>
       </c>
-      <c r="M21" s="241" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="241"/>
-      <c r="O21" s="399" t="n">
+      <c r="M21" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="242"/>
+      <c r="O21" s="400" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
-      <c r="P21" s="241" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="436" t="n">
+      <c r="P21" s="242" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="437" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
@@ -10635,42 +10647,42 @@
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="257" t="s">
+      <c r="D22" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="259" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="403" t="n">
+      <c r="E22" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="260" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="404" t="n">
         <v>3</v>
       </c>
-      <c r="I22" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="404" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="92"/>
-      <c r="L22" s="405" t="n">
+      <c r="I22" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="405" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="93"/>
+      <c r="L22" s="406" t="n">
         <f aca="false">+O22/Q22</f>
         <v>1.25331466663131</v>
       </c>
-      <c r="M22" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="258"/>
-      <c r="O22" s="406" t="n">
+      <c r="M22" s="259" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="259"/>
+      <c r="O22" s="407" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P22" s="258" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" s="407" t="n">
+      <c r="P22" s="259" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="408" t="n">
         <f aca="false">+$L$7</f>
         <v>2.506627216</v>
       </c>
@@ -10681,44 +10693,44 @@
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="274" t="s">
+      <c r="D23" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="275" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="276" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="411" t="n">
+      <c r="E23" s="276" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="277" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="93"/>
+      <c r="H23" s="412" t="n">
         <v>3</v>
       </c>
-      <c r="I23" s="275" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="412" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="92"/>
-      <c r="L23" s="413" t="n">
+      <c r="I23" s="276" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="413" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="93"/>
+      <c r="L23" s="414" t="n">
         <f aca="false">+SQRT(O23/Q23)</f>
         <v>1.25331413731554</v>
       </c>
-      <c r="M23" s="275" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="275" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="414" t="n">
+      <c r="M23" s="276" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="276" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="415" t="n">
         <f aca="false">+$L$9</f>
         <v>3.14159265359</v>
       </c>
-      <c r="P23" s="275" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="437" t="n">
+      <c r="P23" s="276" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="438" t="n">
         <f aca="false">+$L$8</f>
         <v>2</v>
       </c>
@@ -10745,13 +10757,13 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
       <c r="S24" s="23"/>
-      <c r="X24" s="416" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y24" s="416" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="417" t="n">
+      <c r="X24" s="417" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y24" s="417" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="418" t="n">
         <f aca="false">SQRT(L9*2)</f>
         <v>2.50662827463108</v>
       </c>
@@ -10776,13 +10788,13 @@
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="23"/>
-      <c r="X25" s="416" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y25" s="416" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="417" t="n">
+      <c r="X25" s="417" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y25" s="417" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="418" t="n">
         <f aca="false">L9/L10</f>
         <v>2.50662827462217</v>
       </c>
@@ -10806,13 +10818,13 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
       <c r="S26" s="23"/>
-      <c r="X26" s="416" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y26" s="416" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="417" t="n">
+      <c r="X26" s="417" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y26" s="417" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="418" t="n">
         <f aca="false">+L8*L10</f>
         <v>2.50662827464</v>
       </c>
@@ -10837,27 +10849,27 @@
       <c r="R27" s="25"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
-      <c r="X27" s="418" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y27" s="419" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="420" t="n">
+      <c r="X27" s="419" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" s="420" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="421" t="n">
         <f aca="false">+L7/L10</f>
         <v>1.99999915532749</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="293"/>
+      <c r="B28" s="294"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="293"/>
-      <c r="E28" s="86"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="86"/>
+      <c r="J28" s="87"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
@@ -10868,27 +10880,27 @@
       <c r="R28" s="23"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
-      <c r="X28" s="419" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y28" s="419" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="420" t="n">
+      <c r="X28" s="420" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y28" s="420" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="421" t="n">
         <f aca="false">+L7^2/L9</f>
         <v>1.99999831066956</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="293"/>
+      <c r="B29" s="294"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="86"/>
+      <c r="D29" s="294"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="86"/>
+      <c r="J29" s="87"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
@@ -10899,27 +10911,27 @@
       <c r="R29" s="23"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
-      <c r="X29" s="419" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y29" s="419" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="420" t="n">
+      <c r="X29" s="420" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y29" s="420" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="421" t="n">
         <f aca="false">+L9/L10^2</f>
         <v>1.99999999998577</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="293"/>
+      <c r="B30" s="294"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="293"/>
-      <c r="E30" s="86"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="86"/>
+      <c r="J30" s="87"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
@@ -10930,27 +10942,27 @@
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
-      <c r="X30" s="421" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y30" s="421" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="422" t="n">
+      <c r="X30" s="422" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y30" s="422" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="423" t="n">
         <f aca="false">+L7^2/L8</f>
         <v>3.14158999999596</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="293"/>
+      <c r="B31" s="294"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="86"/>
+      <c r="D31" s="294"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="86"/>
+      <c r="J31" s="87"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
@@ -10961,27 +10973,27 @@
       <c r="R31" s="23"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
-      <c r="X31" s="421" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y31" s="421" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="422" t="n">
+      <c r="X31" s="422" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y31" s="422" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="423" t="n">
         <f aca="false">+(L10^2)*2</f>
         <v>3.14159265361235</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="293"/>
+      <c r="B32" s="294"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="293"/>
-      <c r="E32" s="86"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="86"/>
+      <c r="J32" s="87"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
@@ -10992,27 +11004,27 @@
       <c r="R32" s="23"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
-      <c r="X32" s="421" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y32" s="421" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="422" t="n">
+      <c r="X32" s="422" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y32" s="422" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="423" t="n">
         <f aca="false">+L7*L10</f>
         <v>3.14159132680387</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="293"/>
+      <c r="B33" s="294"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="86"/>
+      <c r="D33" s="294"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="86"/>
+      <c r="J33" s="87"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
@@ -11023,27 +11035,27 @@
       <c r="R33" s="23"/>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
-      <c r="X33" s="423" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y33" s="424" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="425" t="n">
+      <c r="X33" s="424" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y33" s="425" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="426" t="n">
         <f aca="false">+L7/L8</f>
         <v>1.253313608</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="293"/>
+      <c r="B34" s="294"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="86"/>
+      <c r="D34" s="294"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="86"/>
+      <c r="J34" s="87"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
@@ -11054,27 +11066,27 @@
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
-      <c r="X34" s="424" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y34" s="424" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="425" t="n">
+      <c r="X34" s="425" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y34" s="425" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="426" t="n">
         <f aca="false">+L9/L7</f>
         <v>1.25331466663131</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="293"/>
+      <c r="B35" s="294"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="293"/>
-      <c r="E35" s="86"/>
+      <c r="D35" s="294"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="86"/>
+      <c r="J35" s="87"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
@@ -11085,27 +11097,27 @@
       <c r="R35" s="23"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
-      <c r="X35" s="424" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y35" s="424" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="425" t="n">
+      <c r="X35" s="425" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y35" s="425" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="426" t="n">
         <f aca="false">+SQRT(L9/L8)</f>
         <v>1.25331413731554</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="293"/>
+      <c r="B36" s="294"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="293"/>
-      <c r="E36" s="86"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="86"/>
+      <c r="J36" s="87"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
@@ -11118,15 +11130,15 @@
       <c r="T36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="293"/>
+      <c r="B37" s="294"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="293"/>
-      <c r="E37" s="86"/>
+      <c r="D37" s="294"/>
+      <c r="E37" s="87"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="86"/>
+      <c r="J37" s="87"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
@@ -11139,15 +11151,15 @@
       <c r="T37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="293"/>
+      <c r="B38" s="294"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="86"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="87"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="86"/>
+      <c r="J38" s="87"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
@@ -11160,15 +11172,15 @@
       <c r="T38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="293"/>
+      <c r="B39" s="294"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="86"/>
+      <c r="D39" s="294"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="86"/>
+      <c r="J39" s="87"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
@@ -11181,15 +11193,15 @@
       <c r="T39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="293"/>
+      <c r="B40" s="294"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="86"/>
+      <c r="D40" s="294"/>
+      <c r="E40" s="87"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="86"/>
+      <c r="J40" s="87"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
@@ -11202,15 +11214,15 @@
       <c r="T40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="293"/>
+      <c r="B41" s="294"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="293"/>
-      <c r="E41" s="86"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="87"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="86"/>
+      <c r="J41" s="87"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
@@ -11223,15 +11235,15 @@
       <c r="T41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="293"/>
+      <c r="B42" s="294"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="293"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="294"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="86"/>
+      <c r="J42" s="87"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
@@ -11244,15 +11256,15 @@
       <c r="T42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="293"/>
+      <c r="B43" s="294"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="294"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="86"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
@@ -11265,15 +11277,15 @@
       <c r="T43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="293"/>
+      <c r="B44" s="294"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="293"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="294"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="86"/>
+      <c r="J44" s="87"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
@@ -11286,15 +11298,15 @@
       <c r="T44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="293"/>
+      <c r="B45" s="294"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="86"/>
+      <c r="D45" s="294"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="86"/>
+      <c r="J45" s="87"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
@@ -11307,15 +11319,15 @@
       <c r="T45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="293"/>
+      <c r="B46" s="294"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="294"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="86"/>
+      <c r="J46" s="87"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
@@ -11328,15 +11340,15 @@
       <c r="T46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="293"/>
+      <c r="B47" s="294"/>
       <c r="C47" s="23"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="294"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="86"/>
+      <c r="J47" s="87"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
@@ -11349,15 +11361,15 @@
       <c r="T47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="293"/>
+      <c r="B48" s="294"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="293"/>
-      <c r="E48" s="86"/>
+      <c r="D48" s="294"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="86"/>
+      <c r="J48" s="87"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
@@ -11370,15 +11382,15 @@
       <c r="T48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="293"/>
+      <c r="B49" s="294"/>
       <c r="C49" s="23"/>
-      <c r="D49" s="293"/>
-      <c r="E49" s="86"/>
+      <c r="D49" s="294"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="86"/>
+      <c r="J49" s="87"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
@@ -11391,15 +11403,15 @@
       <c r="T49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="293"/>
+      <c r="B50" s="294"/>
       <c r="C50" s="23"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="86"/>
+      <c r="D50" s="294"/>
+      <c r="E50" s="87"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="86"/>
+      <c r="J50" s="87"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
@@ -11412,15 +11424,15 @@
       <c r="T50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="293"/>
+      <c r="B51" s="294"/>
       <c r="C51" s="23"/>
-      <c r="D51" s="293"/>
-      <c r="E51" s="86"/>
+      <c r="D51" s="294"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="86"/>
+      <c r="J51" s="87"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
@@ -11433,15 +11445,15 @@
       <c r="T51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="293"/>
+      <c r="B52" s="294"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="293"/>
-      <c r="E52" s="86"/>
+      <c r="D52" s="294"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="86"/>
+      <c r="J52" s="87"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
